--- a/excel-data-analysis/excel_cheatsheet.xlsx
+++ b/excel-data-analysis/excel_cheatsheet.xlsx
@@ -5,19 +5,19 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c5e09e4e8456bbfa/Excel_Tips/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liluo\OneDrive\Excel_Tips\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="581" documentId="13_ncr:1_{5168A2E0-B50E-4B36-8C15-28312EE57731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0BAAC3B6-150A-42E1-90EB-820E374CB4D3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB2FE57-C4F1-414B-923F-ED3BBE196C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Date Functions" sheetId="2" r:id="rId1"/>
-    <sheet name="Math" sheetId="3" r:id="rId2"/>
-    <sheet name="LOOKUP Functions" sheetId="11" r:id="rId3"/>
-    <sheet name="Text&amp;Logical Functions" sheetId="1" r:id="rId4"/>
-    <sheet name="Basic Operations" sheetId="7" r:id="rId5"/>
+    <sheet name="Basic Operations" sheetId="7" r:id="rId1"/>
+    <sheet name="Date Functions" sheetId="2" r:id="rId2"/>
+    <sheet name="Math" sheetId="3" r:id="rId3"/>
+    <sheet name="LOOKUP Functions" sheetId="11" r:id="rId4"/>
+    <sheet name="Text&amp;Logical Functions" sheetId="1" r:id="rId5"/>
     <sheet name="Pivot Table" sheetId="12" r:id="rId6"/>
     <sheet name="Visualization" sheetId="4" r:id="rId7"/>
     <sheet name="Q&amp;A" sheetId="10" r:id="rId8"/>
@@ -26,9 +26,6 @@
     <definedName name="_xlchart.v5.0" hidden="1">Visualization!$AJ$4:$AJ$14</definedName>
     <definedName name="_xlchart.v5.1" hidden="1">Visualization!$AL$3</definedName>
     <definedName name="_xlchart.v5.2" hidden="1">Visualization!$AL$4:$AL$14</definedName>
-    <definedName name="_xlchart.v5.3" hidden="1">Visualization!$AJ$4:$AJ$14</definedName>
-    <definedName name="_xlchart.v5.4" hidden="1">Visualization!$AL$3</definedName>
-    <definedName name="_xlchart.v5.5" hidden="1">Visualization!$AL$4:$AL$14</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
@@ -2873,6 +2870,15 @@
     <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3047,13 +3053,13 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3077,13 +3083,43 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3119,6 +3155,30 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3135,51 +3195,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3199,24 +3214,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -5285,50 +5282,6 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:numFmt formatCode="&quot;$&quot;#,##0\ &quot;K&quot;" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="75000"/>
-                          <a:lumOff val="25000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-8DA7-48BA-B905-B263741026BD}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
             <c:numFmt formatCode="&quot;$&quot;#,##0\ &quot;K&quot;" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
@@ -9902,10 +9855,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v5.3</cx:f>
+        <cx:f>_xlchart.v5.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v5.5</cx:f>
+        <cx:f>_xlchart.v5.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -9937,7 +9890,7 @@
         <cx:series layoutId="waterfall" uniqueId="{8D25E280-4963-44DC-8C1B-4861AA29B16A}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v5.4</cx:f>
+              <cx:f>_xlchart.v5.1</cx:f>
               <cx:v>Delta</cx:v>
             </cx:txData>
           </cx:tx>
@@ -16640,7 +16593,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="28239720" y="3385185"/>
+              <a:off x="28064460" y="3217545"/>
               <a:ext cx="4815840" cy="3360420"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -17257,6 +17210,230 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2110081-A63C-444E-B14A-346C837CED3A}">
+  <dimension ref="B1:F26"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="48.5546875" style="29" customWidth="1"/>
+    <col min="3" max="3" width="59.33203125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" style="26" customWidth="1"/>
+    <col min="5" max="5" width="58.5546875" customWidth="1"/>
+    <col min="6" max="6" width="80.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:6" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="175" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="176"/>
+      <c r="E2" s="175" t="s">
+        <v>131</v>
+      </c>
+      <c r="F2" s="176"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="69" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="67"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="69" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="67"/>
+    </row>
+    <row r="5" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="70"/>
+      <c r="F5" s="67"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E6" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="67" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E7" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="154" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="177" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="178"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="154"/>
+    </row>
+    <row r="9" spans="2:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="173" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="174"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="67" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="67" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="67" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="65"/>
+      <c r="C14" s="67"/>
+    </row>
+    <row r="15" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="173" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" s="174"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="68" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="65" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="67" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B18" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="C18" s="68" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="67" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="65"/>
+      <c r="C20" s="68"/>
+    </row>
+    <row r="21" spans="2:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="173" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" s="174"/>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B22" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="67" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="65"/>
+      <c r="C23" s="67"/>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B24" s="65"/>
+      <c r="C24" s="67"/>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B25" s="65"/>
+      <c r="C25" s="67"/>
+    </row>
+    <row r="26" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="115"/>
+      <c r="C26" s="116"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="F7:F8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF4E448A-DCBA-493B-BA7D-C9EFD1BDE7CC}">
   <dimension ref="B1:I19"/>
   <sheetViews>
@@ -17278,40 +17455,40 @@
   <sheetData>
     <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="121" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="118" t="s">
+      <c r="C2" s="123" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="118" t="s">
+      <c r="D2" s="123" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="118" t="s">
+      <c r="E2" s="123" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="118" t="s">
+      <c r="F2" s="123" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="118" t="s">
+      <c r="G2" s="123" t="s">
         <v>96</v>
       </c>
-      <c r="H2" s="112" t="s">
+      <c r="H2" s="117" t="s">
         <v>132</v>
       </c>
-      <c r="I2" s="114" t="s">
+      <c r="I2" s="119" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="3" spans="2:9" s="71" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="117"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="119"/>
-      <c r="F3" s="119"/>
-      <c r="G3" s="119"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="115"/>
+      <c r="B3" s="122"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="120"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="20" t="s">
@@ -17850,7 +18027,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C21B5A3-C746-4DF2-9AD9-EFA6DFBC3230}">
   <dimension ref="B2:K37"/>
   <sheetViews>
@@ -17864,7 +18041,7 @@
     <col min="2" max="2" width="17.88671875" customWidth="1"/>
     <col min="3" max="3" width="10.88671875" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="4.6640625" style="138" customWidth="1"/>
+    <col min="5" max="5" width="4.6640625" style="143" customWidth="1"/>
     <col min="6" max="6" width="37.109375" customWidth="1"/>
     <col min="7" max="7" width="13.5546875" style="51" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.88671875" style="51" bestFit="1" customWidth="1"/>
@@ -17882,12 +18059,12 @@
       <c r="K2" s="50"/>
     </row>
     <row r="3" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="120" t="s">
+      <c r="B3" s="125" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="121"/>
-      <c r="D3" s="122"/>
-      <c r="F3" s="116" t="s">
+      <c r="C3" s="126"/>
+      <c r="D3" s="127"/>
+      <c r="F3" s="121" t="s">
         <v>70</v>
       </c>
       <c r="G3" s="77" t="s">
@@ -17907,10 +18084,10 @@
       </c>
     </row>
     <row r="4" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="123"/>
-      <c r="C4" s="124"/>
-      <c r="D4" s="125"/>
-      <c r="F4" s="126"/>
+      <c r="B4" s="128"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="130"/>
+      <c r="F4" s="131"/>
       <c r="G4" s="53" t="s">
         <v>36</v>
       </c>
@@ -17937,7 +18114,7 @@
       <c r="D5" s="97" t="s">
         <v>78</v>
       </c>
-      <c r="F5" s="117"/>
+      <c r="F5" s="122"/>
       <c r="G5" s="54">
         <f>MIN(B:B)</f>
         <v>7.28</v>
@@ -17970,26 +18147,26 @@
         <f>Table4[[#This Row],[Sales]]*Table4[[#This Row],[Quantity]]</f>
         <v>523.91999999999996</v>
       </c>
-      <c r="F6" s="127" t="s">
+      <c r="F6" s="132" t="s">
         <v>133</v>
       </c>
-      <c r="G6" s="130">
+      <c r="G6" s="135">
         <f>ROUND(G5,1)</f>
         <v>7.3</v>
       </c>
-      <c r="H6" s="130">
+      <c r="H6" s="135">
         <f>ROUND(H5,1)</f>
         <v>1706.2</v>
       </c>
-      <c r="I6" s="130">
+      <c r="I6" s="135">
         <f>ROUND(I5,1)</f>
         <v>5818.4</v>
       </c>
-      <c r="J6" s="130">
+      <c r="J6" s="135">
         <f>ROUND(J5,1)</f>
         <v>447.6</v>
       </c>
-      <c r="K6" s="131"/>
+      <c r="K6" s="136"/>
     </row>
     <row r="7" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="30">
@@ -18002,12 +18179,12 @@
         <f>Table4[[#This Row],[Sales]]*Table4[[#This Row],[Quantity]]</f>
         <v>2195.8199999999997</v>
       </c>
-      <c r="F7" s="128"/>
-      <c r="G7" s="130"/>
-      <c r="H7" s="130"/>
-      <c r="I7" s="130"/>
-      <c r="J7" s="130"/>
-      <c r="K7" s="131"/>
+      <c r="F7" s="133"/>
+      <c r="G7" s="135"/>
+      <c r="H7" s="135"/>
+      <c r="I7" s="135"/>
+      <c r="J7" s="135"/>
+      <c r="K7" s="136"/>
     </row>
     <row r="8" spans="2:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="63">
@@ -18020,12 +18197,12 @@
         <f>Table4[[#This Row],[Sales]]*Table4[[#This Row],[Quantity]]</f>
         <v>29.24</v>
       </c>
-      <c r="F8" s="129"/>
-      <c r="G8" s="130"/>
-      <c r="H8" s="130"/>
-      <c r="I8" s="130"/>
-      <c r="J8" s="130"/>
-      <c r="K8" s="131"/>
+      <c r="F8" s="134"/>
+      <c r="G8" s="135"/>
+      <c r="H8" s="135"/>
+      <c r="I8" s="135"/>
+      <c r="J8" s="135"/>
+      <c r="K8" s="136"/>
     </row>
     <row r="9" spans="2:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="30">
@@ -18114,14 +18291,14 @@
         <f>Table4[[#This Row],[Sales]]*Table4[[#This Row],[Quantity]]</f>
         <v>29.12</v>
       </c>
-      <c r="F12" s="132" t="s">
+      <c r="F12" s="137" t="s">
         <v>71</v>
       </c>
-      <c r="G12" s="133"/>
-      <c r="H12" s="133"/>
-      <c r="I12" s="133"/>
-      <c r="J12" s="133"/>
-      <c r="K12" s="134"/>
+      <c r="G12" s="138"/>
+      <c r="H12" s="138"/>
+      <c r="I12" s="138"/>
+      <c r="J12" s="138"/>
+      <c r="K12" s="139"/>
     </row>
     <row r="13" spans="2:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="30">
@@ -18134,12 +18311,12 @@
         <f>Table4[[#This Row],[Sales]]*Table4[[#This Row],[Quantity]]</f>
         <v>5442.9120000000003</v>
       </c>
-      <c r="F13" s="135"/>
-      <c r="G13" s="136"/>
-      <c r="H13" s="136"/>
-      <c r="I13" s="136"/>
-      <c r="J13" s="136"/>
-      <c r="K13" s="137"/>
+      <c r="F13" s="140"/>
+      <c r="G13" s="141"/>
+      <c r="H13" s="141"/>
+      <c r="I13" s="141"/>
+      <c r="J13" s="141"/>
+      <c r="K13" s="142"/>
     </row>
     <row r="14" spans="2:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="30">
@@ -18155,13 +18332,13 @@
       <c r="F14" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="G14" s="139" t="s">
+      <c r="G14" s="144" t="s">
         <v>75</v>
       </c>
-      <c r="H14" s="140"/>
-      <c r="I14" s="140"/>
-      <c r="J14" s="140"/>
-      <c r="K14" s="141"/>
+      <c r="H14" s="145"/>
+      <c r="I14" s="145"/>
+      <c r="J14" s="145"/>
+      <c r="K14" s="146"/>
     </row>
     <row r="15" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="30">
@@ -18177,13 +18354,13 @@
       <c r="F15" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="G15" s="142" t="s">
+      <c r="G15" s="147" t="s">
         <v>76</v>
       </c>
-      <c r="H15" s="143"/>
-      <c r="I15" s="143"/>
-      <c r="J15" s="143"/>
-      <c r="K15" s="144"/>
+      <c r="H15" s="148"/>
+      <c r="I15" s="148"/>
+      <c r="J15" s="148"/>
+      <c r="K15" s="149"/>
     </row>
     <row r="16" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B16" s="30">
@@ -18196,16 +18373,16 @@
         <f>Table4[[#This Row],[Sales]]*Table4[[#This Row],[Quantity]]</f>
         <v>15355.656000000003</v>
       </c>
-      <c r="F16" s="145" t="s">
+      <c r="F16" s="150" t="s">
         <v>74</v>
       </c>
-      <c r="G16" s="147" t="s">
+      <c r="G16" s="152" t="s">
         <v>77</v>
       </c>
-      <c r="H16" s="148"/>
-      <c r="I16" s="148"/>
-      <c r="J16" s="148"/>
-      <c r="K16" s="149"/>
+      <c r="H16" s="153"/>
+      <c r="I16" s="153"/>
+      <c r="J16" s="153"/>
+      <c r="K16" s="154"/>
     </row>
     <row r="17" spans="2:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="30">
@@ -18218,12 +18395,12 @@
         <f>Table4[[#This Row],[Sales]]*Table4[[#This Row],[Quantity]]</f>
         <v>3645.6959999999999</v>
       </c>
-      <c r="F17" s="146"/>
-      <c r="G17" s="147"/>
-      <c r="H17" s="148"/>
-      <c r="I17" s="148"/>
-      <c r="J17" s="148"/>
-      <c r="K17" s="149"/>
+      <c r="F17" s="151"/>
+      <c r="G17" s="152"/>
+      <c r="H17" s="153"/>
+      <c r="I17" s="153"/>
+      <c r="J17" s="153"/>
+      <c r="K17" s="154"/>
     </row>
     <row r="18" spans="2:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="15">
@@ -18239,13 +18416,13 @@
       <c r="F18" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="G18" s="150" t="s">
+      <c r="G18" s="155" t="s">
         <v>79</v>
       </c>
-      <c r="H18" s="151"/>
-      <c r="I18" s="151"/>
-      <c r="J18" s="151"/>
-      <c r="K18" s="152"/>
+      <c r="H18" s="156"/>
+      <c r="I18" s="156"/>
+      <c r="J18" s="156"/>
+      <c r="K18" s="157"/>
     </row>
     <row r="19" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B19" s="15"/>
@@ -18330,19 +18507,19 @@
       <c r="J32"/>
     </row>
     <row r="33" spans="5:5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E33" s="138"/>
+      <c r="E33" s="143"/>
     </row>
     <row r="34" spans="5:5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E34" s="138"/>
+      <c r="E34" s="143"/>
     </row>
     <row r="35" spans="5:5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E35" s="138"/>
+      <c r="E35" s="143"/>
     </row>
     <row r="36" spans="5:5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E36" s="138"/>
+      <c r="E36" s="143"/>
     </row>
     <row r="37" spans="5:5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E37" s="138"/>
+      <c r="E37" s="143"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -18373,11 +18550,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9357DFC0-4C52-4A25-AC81-96B42121AE68}">
   <dimension ref="B2:J30"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -18385,12 +18562,12 @@
   <cols>
     <col min="1" max="1" width="4.6640625" customWidth="1"/>
     <col min="2" max="2" width="102" customWidth="1"/>
-    <col min="3" max="3" width="4.44140625" style="138" customWidth="1"/>
+    <col min="3" max="3" width="3.109375" style="143" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="18.5546875" customWidth="1"/>
     <col min="6" max="6" width="15.109375" customWidth="1"/>
     <col min="7" max="7" width="21.88671875" customWidth="1"/>
-    <col min="8" max="8" width="4" style="138" customWidth="1"/>
+    <col min="8" max="8" width="3.109375" style="143" customWidth="1"/>
     <col min="9" max="9" width="28.44140625" customWidth="1"/>
     <col min="10" max="10" width="16.88671875" customWidth="1"/>
   </cols>
@@ -18412,10 +18589,10 @@
       <c r="G3" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="153" t="s">
+      <c r="I3" s="158" t="s">
         <v>138</v>
       </c>
-      <c r="J3" s="154"/>
+      <c r="J3" s="159"/>
     </row>
     <row r="4" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="76" t="s">
@@ -18514,10 +18691,10 @@
       <c r="G8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="153" t="s">
+      <c r="I8" s="158" t="s">
         <v>117</v>
       </c>
-      <c r="J8" s="154"/>
+      <c r="J8" s="159"/>
     </row>
     <row r="9" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="45" t="s">
@@ -18574,13 +18751,13 @@
       <c r="E13" s="1"/>
       <c r="F13" s="2"/>
       <c r="G13" s="1"/>
-      <c r="I13" s="153" t="s">
+      <c r="I13" s="158" t="s">
         <v>144</v>
       </c>
-      <c r="J13" s="154"/>
+      <c r="J13" s="159"/>
     </row>
     <row r="14" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="155" t="s">
+      <c r="B14" s="160" t="s">
         <v>146</v>
       </c>
       <c r="D14" s="1"/>
@@ -18595,7 +18772,7 @@
       </c>
     </row>
     <row r="15" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="155"/>
+      <c r="B15" s="160"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="2"/>
@@ -18654,12 +18831,12 @@
       </c>
     </row>
     <row r="26" spans="2:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="155" t="s">
+      <c r="B26" s="160" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B27" s="155"/>
+      <c r="B27" s="160"/>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" s="44" t="s">
@@ -18694,11 +18871,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="J23" activeCellId="4" sqref="F23:F24 G23:G24 H23:H24 I23:I24 J23:J24"/>
     </sheetView>
   </sheetViews>
@@ -19484,38 +19661,38 @@
     </row>
     <row r="22" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="23" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="160" t="s">
+      <c r="B23" s="165" t="s">
         <v>120</v>
       </c>
-      <c r="C23" s="161"/>
-      <c r="D23" s="161"/>
-      <c r="E23" s="162"/>
-      <c r="F23" s="166" t="s">
+      <c r="C23" s="166"/>
+      <c r="D23" s="166"/>
+      <c r="E23" s="167"/>
+      <c r="F23" s="171" t="s">
         <v>100</v>
       </c>
-      <c r="G23" s="156" t="s">
+      <c r="G23" s="161" t="s">
         <v>107</v>
       </c>
-      <c r="H23" s="156" t="s">
+      <c r="H23" s="161" t="s">
         <v>109</v>
       </c>
-      <c r="I23" s="156" t="s">
+      <c r="I23" s="161" t="s">
         <v>111</v>
       </c>
-      <c r="J23" s="158" t="s">
+      <c r="J23" s="163" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="24" spans="2:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="163"/>
-      <c r="C24" s="164"/>
-      <c r="D24" s="164"/>
-      <c r="E24" s="165"/>
-      <c r="F24" s="167"/>
-      <c r="G24" s="157"/>
-      <c r="H24" s="157"/>
-      <c r="I24" s="157"/>
-      <c r="J24" s="159"/>
+      <c r="B24" s="168"/>
+      <c r="C24" s="169"/>
+      <c r="D24" s="169"/>
+      <c r="E24" s="170"/>
+      <c r="F24" s="172"/>
+      <c r="G24" s="162"/>
+      <c r="H24" s="162"/>
+      <c r="I24" s="162"/>
+      <c r="J24" s="164"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="22" t="s">
@@ -20091,236 +20268,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2110081-A63C-444E-B14A-346C837CED3A}">
-  <dimension ref="B1:F26"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="48.5546875" style="29" customWidth="1"/>
-    <col min="3" max="3" width="59.33203125" style="27" customWidth="1"/>
-    <col min="4" max="4" width="6.109375" style="26" customWidth="1"/>
-    <col min="5" max="5" width="58.5546875" customWidth="1"/>
-    <col min="6" max="6" width="80.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:6" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="172" t="s">
-        <v>122</v>
-      </c>
-      <c r="C2" s="171"/>
-      <c r="E2" s="172" t="s">
-        <v>131</v>
-      </c>
-      <c r="F2" s="171"/>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="57" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="69" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" s="67"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="69" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="67"/>
-    </row>
-    <row r="5" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="61" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="62" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="70"/>
-      <c r="F5" s="67"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E6" s="66" t="s">
-        <v>62</v>
-      </c>
-      <c r="F6" s="67" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E7" s="66" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" s="149" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="170" t="s">
-        <v>123</v>
-      </c>
-      <c r="C8" s="173"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="149"/>
-    </row>
-    <row r="9" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="168" t="s">
-        <v>124</v>
-      </c>
-      <c r="C9" s="169"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="65" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="67" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="65" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="67" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="65" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="67" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="65" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" s="67" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="65"/>
-      <c r="C14" s="67"/>
-    </row>
-    <row r="15" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="168" t="s">
-        <v>125</v>
-      </c>
-      <c r="C15" s="169"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="66" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" s="68" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="65" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="67" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B18" s="65" t="s">
-        <v>127</v>
-      </c>
-      <c r="C18" s="68" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="65" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="67" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="65"/>
-      <c r="C20" s="68"/>
-    </row>
-    <row r="21" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="168" t="s">
-        <v>126</v>
-      </c>
-      <c r="C21" s="169"/>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="65" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="67" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="65"/>
-      <c r="C23" s="67"/>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="65"/>
-      <c r="C24" s="67"/>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="65"/>
-      <c r="C25" s="67"/>
-    </row>
-    <row r="26" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="227"/>
-      <c r="C26" s="228"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="F7:F8"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15FF93A9-1001-4049-B63A-FC6966CA3C08}">
   <dimension ref="B2:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20329,7 +20282,7 @@
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="4.44140625" style="138" customWidth="1"/>
+    <col min="5" max="5" width="4.44140625" style="143" customWidth="1"/>
     <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="3.21875" customWidth="1"/>
@@ -20359,10 +20312,10 @@
       <c r="H3" t="s">
         <v>165</v>
       </c>
-      <c r="J3" s="174" t="s">
+      <c r="J3" s="179" t="s">
         <v>167</v>
       </c>
-      <c r="K3" s="175"/>
+      <c r="K3" s="180"/>
       <c r="L3" s="28"/>
       <c r="N3" s="28"/>
       <c r="O3" s="27"/>
@@ -20386,8 +20339,8 @@
       <c r="H4" s="42">
         <v>1706.1840000000002</v>
       </c>
-      <c r="J4" s="176"/>
-      <c r="K4" s="177"/>
+      <c r="J4" s="181"/>
+      <c r="K4" s="182"/>
       <c r="L4" s="28"/>
       <c r="N4" s="27"/>
       <c r="O4" s="27"/>
@@ -20411,8 +20364,8 @@
       <c r="H5" s="42">
         <v>8.56</v>
       </c>
-      <c r="J5" s="176"/>
-      <c r="K5" s="177"/>
+      <c r="J5" s="181"/>
+      <c r="K5" s="182"/>
       <c r="L5" s="28"/>
       <c r="N5" s="27"/>
       <c r="O5" s="27"/>
@@ -20436,8 +20389,8 @@
       <c r="H6" s="42">
         <v>22.72</v>
       </c>
-      <c r="J6" s="176"/>
-      <c r="K6" s="177"/>
+      <c r="J6" s="181"/>
+      <c r="K6" s="182"/>
       <c r="L6" s="28"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -20461,8 +20414,8 @@
       <c r="H7" s="42">
         <v>1044.6299999999999</v>
       </c>
-      <c r="J7" s="176"/>
-      <c r="K7" s="177"/>
+      <c r="J7" s="181"/>
+      <c r="K7" s="182"/>
       <c r="L7" s="28"/>
       <c r="M7" s="27"/>
       <c r="N7" s="27"/>
@@ -20478,8 +20431,8 @@
       <c r="H8" s="42">
         <v>2782.0940000000001</v>
       </c>
-      <c r="J8" s="178"/>
-      <c r="K8" s="179"/>
+      <c r="J8" s="183"/>
+      <c r="K8" s="184"/>
       <c r="L8" s="28"/>
       <c r="M8" s="27"/>
       <c r="N8" s="27"/>
@@ -20523,10 +20476,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34D6FD9D-2D30-4583-8663-C65F6BE12213}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:AS77"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AK53" sqref="AK53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20571,83 +20527,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:45" x14ac:dyDescent="0.3">
-      <c r="D1" s="138"/>
-      <c r="L1" s="138"/>
-      <c r="R1" s="138"/>
-      <c r="X1" s="138"/>
-      <c r="AE1" s="138"/>
-      <c r="AI1" s="138"/>
-      <c r="AO1" s="138"/>
+      <c r="D1" s="143"/>
+      <c r="L1" s="143"/>
+      <c r="R1" s="143"/>
+      <c r="X1" s="143"/>
+      <c r="AE1" s="143"/>
+      <c r="AI1" s="143"/>
+      <c r="AO1" s="143"/>
     </row>
     <row r="2" spans="2:45" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="215" t="s">
+      <c r="B2" s="223" t="s">
         <v>200</v>
       </c>
-      <c r="C2" s="216"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="200" t="s">
+      <c r="C2" s="224"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="216" t="s">
         <v>259</v>
       </c>
-      <c r="F2" s="200"/>
-      <c r="G2" s="200"/>
-      <c r="H2" s="200"/>
-      <c r="I2" s="200"/>
-      <c r="L2" s="138"/>
-      <c r="M2" s="200" t="s">
+      <c r="F2" s="216"/>
+      <c r="G2" s="216"/>
+      <c r="H2" s="216"/>
+      <c r="I2" s="216"/>
+      <c r="L2" s="143"/>
+      <c r="M2" s="216" t="s">
         <v>239</v>
       </c>
-      <c r="N2" s="200"/>
-      <c r="O2" s="200"/>
-      <c r="P2" s="200"/>
-      <c r="Q2" s="200"/>
-      <c r="R2" s="138"/>
-      <c r="S2" s="200" t="s">
+      <c r="N2" s="216"/>
+      <c r="O2" s="216"/>
+      <c r="P2" s="216"/>
+      <c r="Q2" s="216"/>
+      <c r="R2" s="143"/>
+      <c r="S2" s="216" t="s">
         <v>197</v>
       </c>
-      <c r="T2" s="200"/>
-      <c r="U2" s="200"/>
-      <c r="V2" s="200"/>
-      <c r="W2" s="200"/>
-      <c r="X2" s="138"/>
-      <c r="Y2" s="180" t="s">
+      <c r="T2" s="216"/>
+      <c r="U2" s="216"/>
+      <c r="V2" s="216"/>
+      <c r="W2" s="216"/>
+      <c r="X2" s="143"/>
+      <c r="Y2" s="188" t="s">
         <v>202</v>
       </c>
-      <c r="Z2" s="180"/>
-      <c r="AA2" s="180"/>
-      <c r="AB2" s="180"/>
-      <c r="AC2" s="180"/>
-      <c r="AD2" s="180"/>
-      <c r="AE2" s="138"/>
-      <c r="AF2" s="180" t="s">
+      <c r="Z2" s="188"/>
+      <c r="AA2" s="188"/>
+      <c r="AB2" s="188"/>
+      <c r="AC2" s="188"/>
+      <c r="AD2" s="188"/>
+      <c r="AE2" s="143"/>
+      <c r="AF2" s="188" t="s">
         <v>240</v>
       </c>
-      <c r="AG2" s="180"/>
-      <c r="AH2" s="180"/>
-      <c r="AI2" s="138"/>
-      <c r="AJ2" s="180" t="s">
+      <c r="AG2" s="188"/>
+      <c r="AH2" s="188"/>
+      <c r="AI2" s="143"/>
+      <c r="AJ2" s="188" t="s">
         <v>241</v>
       </c>
-      <c r="AK2" s="180"/>
-      <c r="AL2" s="180"/>
-      <c r="AO2" s="138"/>
-      <c r="AP2" s="180" t="s">
+      <c r="AK2" s="188"/>
+      <c r="AL2" s="188"/>
+      <c r="AO2" s="143"/>
+      <c r="AP2" s="188" t="s">
         <v>242</v>
       </c>
-      <c r="AQ2" s="180"/>
-      <c r="AR2" s="180"/>
-      <c r="AS2" s="180"/>
+      <c r="AQ2" s="188"/>
+      <c r="AR2" s="188"/>
+      <c r="AS2" s="188"/>
     </row>
     <row r="3" spans="2:45" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="217"/>
-      <c r="C3" s="218"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="224" t="s">
+      <c r="B3" s="225"/>
+      <c r="C3" s="226"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="112" t="s">
         <v>203</v>
       </c>
-      <c r="F3" s="224" t="s">
+      <c r="F3" s="112" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="138"/>
+      <c r="L3" s="143"/>
       <c r="M3" t="s">
         <v>171</v>
       </c>
@@ -20663,7 +20619,7 @@
       <c r="Q3" t="s">
         <v>181</v>
       </c>
-      <c r="R3" s="138"/>
+      <c r="R3" s="143"/>
       <c r="S3" t="s">
         <v>183</v>
       </c>
@@ -20679,7 +20635,7 @@
       <c r="W3" t="s">
         <v>38</v>
       </c>
-      <c r="X3" s="138"/>
+      <c r="X3" s="143"/>
       <c r="Y3" t="s">
         <v>203</v>
       </c>
@@ -20698,7 +20654,7 @@
       <c r="AD3" t="s">
         <v>38</v>
       </c>
-      <c r="AE3" s="138"/>
+      <c r="AE3" s="143"/>
       <c r="AF3" s="104" t="s">
         <v>183</v>
       </c>
@@ -20708,7 +20664,7 @@
       <c r="AH3" s="104" t="s">
         <v>222</v>
       </c>
-      <c r="AI3" s="138"/>
+      <c r="AI3" s="143"/>
       <c r="AJ3" s="104" t="s">
         <v>228</v>
       </c>
@@ -20718,7 +20674,7 @@
       <c r="AL3" s="104" t="s">
         <v>230</v>
       </c>
-      <c r="AO3" s="138"/>
+      <c r="AO3" s="143"/>
       <c r="AP3" t="s">
         <v>171</v>
       </c>
@@ -20733,16 +20689,16 @@
       </c>
     </row>
     <row r="4" spans="2:45" x14ac:dyDescent="0.3">
-      <c r="B4" s="217"/>
-      <c r="C4" s="218"/>
-      <c r="D4" s="138"/>
+      <c r="B4" s="225"/>
+      <c r="C4" s="226"/>
+      <c r="D4" s="143"/>
       <c r="E4" s="108" t="s">
         <v>212</v>
       </c>
-      <c r="F4" s="225">
+      <c r="F4" s="113">
         <v>151795.46030000021</v>
       </c>
-      <c r="L4" s="138"/>
+      <c r="L4" s="143"/>
       <c r="M4" s="1" t="s">
         <v>173</v>
       </c>
@@ -20760,7 +20716,7 @@
         <f>O4/O8</f>
         <v>0.13864097560899988</v>
       </c>
-      <c r="R4" s="138"/>
+      <c r="R4" s="143"/>
       <c r="S4" s="1" t="s">
         <v>187</v>
       </c>
@@ -20776,7 +20732,7 @@
       <c r="W4" s="94">
         <v>3024.28</v>
       </c>
-      <c r="X4" s="138"/>
+      <c r="X4" s="143"/>
       <c r="Y4" t="s">
         <v>204</v>
       </c>
@@ -20795,7 +20751,7 @@
       <c r="AD4" s="103">
         <v>74447.795999999988</v>
       </c>
-      <c r="AE4" s="138"/>
+      <c r="AE4" s="143"/>
       <c r="AF4" s="36" t="s">
         <v>223</v>
       </c>
@@ -20805,7 +20761,7 @@
       <c r="AH4" s="103">
         <v>27896.71966666666</v>
       </c>
-      <c r="AI4" s="138"/>
+      <c r="AI4" s="143"/>
       <c r="AJ4" s="36" t="s">
         <v>231</v>
       </c>
@@ -20816,14 +20772,14 @@
         <f>AK4</f>
         <v>5468.1296999999995</v>
       </c>
-      <c r="AO4" s="138"/>
+      <c r="AO4" s="143"/>
       <c r="AP4" t="s">
         <v>173</v>
       </c>
-      <c r="AQ4" s="226">
+      <c r="AQ4" s="114">
         <v>0.21822266446569236</v>
       </c>
-      <c r="AR4" s="226">
+      <c r="AR4" s="114">
         <v>7.9216285911775486E-2</v>
       </c>
       <c r="AS4">
@@ -20831,16 +20787,16 @@
       </c>
     </row>
     <row r="5" spans="2:45" x14ac:dyDescent="0.3">
-      <c r="B5" s="217"/>
-      <c r="C5" s="218"/>
-      <c r="D5" s="138"/>
+      <c r="B5" s="225"/>
+      <c r="C5" s="226"/>
+      <c r="D5" s="143"/>
       <c r="E5" s="108" t="s">
         <v>213</v>
       </c>
-      <c r="F5" s="225">
+      <c r="F5" s="113">
         <v>151084.98550000001</v>
       </c>
-      <c r="L5" s="138"/>
+      <c r="L5" s="143"/>
       <c r="M5" s="1" t="s">
         <v>174</v>
       </c>
@@ -20858,7 +20814,7 @@
         <f>O5/O8</f>
         <v>0.31956610252696666</v>
       </c>
-      <c r="R5" s="138"/>
+      <c r="R5" s="143"/>
       <c r="S5" s="1" t="s">
         <v>188</v>
       </c>
@@ -20874,7 +20830,7 @@
       <c r="W5" s="94">
         <v>12486.312000000002</v>
       </c>
-      <c r="X5" s="138"/>
+      <c r="X5" s="143"/>
       <c r="Y5" t="s">
         <v>205</v>
       </c>
@@ -20893,7 +20849,7 @@
       <c r="AD5" s="103">
         <v>86257.387599999987</v>
       </c>
-      <c r="AE5" s="138"/>
+      <c r="AE5" s="143"/>
       <c r="AF5" s="36" t="s">
         <v>194</v>
       </c>
@@ -20903,7 +20859,7 @@
       <c r="AH5" s="103">
         <v>17922.02683333333</v>
       </c>
-      <c r="AI5" s="138"/>
+      <c r="AI5" s="143"/>
       <c r="AJ5" s="108" t="s">
         <v>232</v>
       </c>
@@ -20914,14 +20870,14 @@
         <f>AK5-AK4</f>
         <v>1192.8611000000001</v>
       </c>
-      <c r="AO5" s="138"/>
+      <c r="AO5" s="143"/>
       <c r="AP5" t="s">
         <v>174</v>
       </c>
-      <c r="AQ5" s="226">
+      <c r="AQ5" s="114">
         <v>0.29539558154133239</v>
       </c>
-      <c r="AR5" s="226">
+      <c r="AR5" s="114">
         <v>0.13490767370348336</v>
       </c>
       <c r="AS5">
@@ -20929,16 +20885,16 @@
       </c>
     </row>
     <row r="6" spans="2:45" x14ac:dyDescent="0.3">
-      <c r="B6" s="217"/>
-      <c r="C6" s="218"/>
-      <c r="D6" s="138"/>
+      <c r="B6" s="225"/>
+      <c r="C6" s="226"/>
+      <c r="D6" s="143"/>
       <c r="E6" s="108" t="s">
         <v>214</v>
       </c>
-      <c r="F6" s="225">
+      <c r="F6" s="113">
         <v>134550.92129999999</v>
       </c>
-      <c r="L6" s="138"/>
+      <c r="L6" s="143"/>
       <c r="M6" s="1" t="s">
         <v>175</v>
       </c>
@@ -20956,7 +20912,7 @@
         <f>O6/O8</f>
         <v>0.16323294852196427</v>
       </c>
-      <c r="R6" s="138"/>
+      <c r="R6" s="143"/>
       <c r="S6" s="1" t="s">
         <v>189</v>
       </c>
@@ -20972,7 +20928,7 @@
       <c r="W6" s="94">
         <v>16476.402000000002</v>
       </c>
-      <c r="X6" s="138"/>
+      <c r="X6" s="143"/>
       <c r="Y6" t="s">
         <v>206</v>
       </c>
@@ -20991,7 +20947,7 @@
       <c r="AD6" s="103">
         <v>143633.21229999998</v>
       </c>
-      <c r="AE6" s="138"/>
+      <c r="AE6" s="143"/>
       <c r="AF6" s="36" t="s">
         <v>190</v>
       </c>
@@ -21001,7 +20957,7 @@
       <c r="AH6" s="103">
         <v>4519.7986666666675</v>
       </c>
-      <c r="AI6" s="138"/>
+      <c r="AI6" s="143"/>
       <c r="AJ6" s="108" t="s">
         <v>233</v>
       </c>
@@ -21012,14 +20968,14 @@
         <f t="shared" ref="AL6:AL8" si="0">AK6-AK5</f>
         <v>-1368.1990000000005</v>
       </c>
-      <c r="AO6" s="138"/>
+      <c r="AO6" s="143"/>
       <c r="AP6" t="s">
         <v>175</v>
       </c>
-      <c r="AQ6" s="226">
+      <c r="AQ6" s="114">
         <v>0.17054228804942673</v>
       </c>
-      <c r="AR6" s="226">
+      <c r="AR6" s="114">
         <v>0.11934341609004485</v>
       </c>
       <c r="AS6">
@@ -21027,16 +20983,16 @@
       </c>
     </row>
     <row r="7" spans="2:45" x14ac:dyDescent="0.3">
-      <c r="B7" s="217"/>
-      <c r="C7" s="218"/>
-      <c r="D7" s="138"/>
+      <c r="B7" s="225"/>
+      <c r="C7" s="226"/>
+      <c r="D7" s="143"/>
       <c r="E7" s="108" t="s">
         <v>215</v>
       </c>
-      <c r="F7" s="225">
+      <c r="F7" s="113">
         <v>109313.38719999985</v>
       </c>
-      <c r="L7" s="138"/>
+      <c r="L7" s="143"/>
       <c r="M7" s="1" t="s">
         <v>176</v>
       </c>
@@ -21054,7 +21010,7 @@
         <f>O7/O8</f>
         <v>0.37855997334206909</v>
       </c>
-      <c r="R7" s="138"/>
+      <c r="R7" s="143"/>
       <c r="S7" s="1" t="s">
         <v>190</v>
       </c>
@@ -21070,7 +21026,7 @@
       <c r="W7" s="94">
         <v>27118.792000000005</v>
       </c>
-      <c r="X7" s="138"/>
+      <c r="X7" s="143"/>
       <c r="Y7" t="s">
         <v>207</v>
       </c>
@@ -21089,7 +21045,7 @@
       <c r="AD7" s="103">
         <v>179627.73020000008</v>
       </c>
-      <c r="AE7" s="138"/>
+      <c r="AE7" s="143"/>
       <c r="AF7" s="36" t="s">
         <v>224</v>
       </c>
@@ -21099,7 +21055,7 @@
       <c r="AH7" s="103">
         <v>33902.122166666675</v>
       </c>
-      <c r="AI7" s="138"/>
+      <c r="AI7" s="143"/>
       <c r="AJ7" s="108" t="s">
         <v>234</v>
       </c>
@@ -21110,14 +21066,14 @@
         <f t="shared" si="0"/>
         <v>4173.4333000000006</v>
       </c>
-      <c r="AO7" s="138"/>
+      <c r="AO7" s="143"/>
       <c r="AP7" t="s">
         <v>176</v>
       </c>
-      <c r="AQ7" s="226">
+      <c r="AQ7" s="114">
         <v>0.3158394659435485</v>
       </c>
-      <c r="AR7" s="226">
+      <c r="AR7" s="114">
         <v>0.14944831420727209</v>
       </c>
       <c r="AS7">
@@ -21125,16 +21081,16 @@
       </c>
     </row>
     <row r="8" spans="2:45" x14ac:dyDescent="0.3">
-      <c r="B8" s="217"/>
-      <c r="C8" s="218"/>
-      <c r="D8" s="138"/>
+      <c r="B8" s="225"/>
+      <c r="C8" s="226"/>
+      <c r="D8" s="143"/>
       <c r="E8" s="108" t="s">
         <v>216</v>
       </c>
-      <c r="F8" s="225">
+      <c r="F8" s="113">
         <v>169850.59679999997</v>
       </c>
-      <c r="L8" s="138"/>
+      <c r="L8" s="143"/>
       <c r="M8" s="1" t="s">
         <v>179</v>
       </c>
@@ -21148,7 +21104,7 @@
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
-      <c r="R8" s="138"/>
+      <c r="R8" s="143"/>
       <c r="S8" s="1" t="s">
         <v>191</v>
       </c>
@@ -21164,7 +21120,7 @@
       <c r="W8" s="94">
         <v>46673.538</v>
       </c>
-      <c r="X8" s="138"/>
+      <c r="X8" s="143"/>
       <c r="Y8" t="s">
         <v>208</v>
       </c>
@@ -21183,7 +21139,7 @@
       <c r="AD8" s="103">
         <v>68851.738599999982</v>
       </c>
-      <c r="AE8" s="138"/>
+      <c r="AE8" s="143"/>
       <c r="AF8" s="36" t="s">
         <v>195</v>
       </c>
@@ -21193,7 +21149,7 @@
       <c r="AH8" s="103">
         <v>19146.666049999996</v>
       </c>
-      <c r="AI8" s="138"/>
+      <c r="AI8" s="143"/>
       <c r="AJ8" s="108" t="s">
         <v>235</v>
       </c>
@@ -21204,20 +21160,20 @@
         <f t="shared" si="0"/>
         <v>-98.673000000000684</v>
       </c>
-      <c r="AO8" s="138"/>
+      <c r="AO8" s="143"/>
     </row>
     <row r="9" spans="2:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="217"/>
-      <c r="C9" s="218"/>
-      <c r="D9" s="138"/>
+      <c r="B9" s="225"/>
+      <c r="C9" s="226"/>
+      <c r="D9" s="143"/>
       <c r="E9" s="108" t="s">
         <v>217</v>
       </c>
-      <c r="F9" s="225">
+      <c r="F9" s="113">
         <v>184953.86179999969</v>
       </c>
-      <c r="L9" s="138"/>
-      <c r="R9" s="138"/>
+      <c r="L9" s="143"/>
+      <c r="R9" s="143"/>
       <c r="S9" s="1" t="s">
         <v>192</v>
       </c>
@@ -21233,7 +21189,7 @@
       <c r="W9" s="94">
         <v>78479.205999999875</v>
       </c>
-      <c r="X9" s="138"/>
+      <c r="X9" s="143"/>
       <c r="Y9" t="s">
         <v>209</v>
       </c>
@@ -21252,7 +21208,7 @@
       <c r="AD9" s="103">
         <v>89124.186999999991</v>
       </c>
-      <c r="AE9" s="138"/>
+      <c r="AE9" s="143"/>
       <c r="AF9" s="36" t="s">
         <v>225</v>
       </c>
@@ -21262,7 +21218,7 @@
       <c r="AH9" s="103">
         <v>54741.517166666628</v>
       </c>
-      <c r="AI9" s="138"/>
+      <c r="AI9" s="143"/>
       <c r="AJ9" t="s">
         <v>236</v>
       </c>
@@ -21273,24 +21229,24 @@
         <f>AK9</f>
         <v>9367.552099999999</v>
       </c>
-      <c r="AO9" s="138"/>
+      <c r="AO9" s="143"/>
     </row>
     <row r="10" spans="2:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="217"/>
-      <c r="C10" s="218"/>
-      <c r="D10" s="138"/>
+      <c r="B10" s="225"/>
+      <c r="C10" s="226"/>
+      <c r="D10" s="143"/>
       <c r="E10" s="108" t="s">
         <v>218</v>
       </c>
-      <c r="F10" s="225">
+      <c r="F10" s="113">
         <v>137583.6532</v>
       </c>
-      <c r="L10" s="138"/>
-      <c r="M10" s="181" t="s">
+      <c r="L10" s="143"/>
+      <c r="M10" s="185" t="s">
         <v>177</v>
       </c>
-      <c r="N10" s="182"/>
-      <c r="R10" s="138"/>
+      <c r="N10" s="187"/>
+      <c r="R10" s="143"/>
       <c r="S10" s="1" t="s">
         <v>193</v>
       </c>
@@ -21306,7 +21262,7 @@
       <c r="W10" s="94">
         <v>91705.163999999932</v>
       </c>
-      <c r="X10" s="138"/>
+      <c r="X10" s="143"/>
       <c r="Y10" t="s">
         <v>210</v>
       </c>
@@ -21325,7 +21281,7 @@
       <c r="AD10" s="103">
         <v>130259.57519999999</v>
       </c>
-      <c r="AE10" s="138"/>
+      <c r="AE10" s="143"/>
       <c r="AF10" s="36" t="s">
         <v>196</v>
       </c>
@@ -21335,7 +21291,7 @@
       <c r="AH10" s="103">
         <v>24921.338333333337</v>
       </c>
-      <c r="AI10" s="138"/>
+      <c r="AI10" s="143"/>
       <c r="AJ10" s="108" t="s">
         <v>232</v>
       </c>
@@ -21346,24 +21302,24 @@
         <f>AK10-AK9</f>
         <v>6755.5131999999994</v>
       </c>
-      <c r="AO10" s="138"/>
-      <c r="AP10" s="181" t="s">
+      <c r="AO10" s="143"/>
+      <c r="AP10" s="185" t="s">
         <v>243</v>
       </c>
-      <c r="AQ10" s="182"/>
+      <c r="AQ10" s="187"/>
     </row>
     <row r="11" spans="2:45" x14ac:dyDescent="0.3">
-      <c r="B11" s="217"/>
-      <c r="C11" s="218"/>
-      <c r="D11" s="138"/>
+      <c r="B11" s="225"/>
+      <c r="C11" s="226"/>
+      <c r="D11" s="143"/>
       <c r="E11" s="108" t="s">
         <v>219</v>
       </c>
-      <c r="F11" s="225">
+      <c r="F11" s="113">
         <v>104234.44329999998</v>
       </c>
-      <c r="L11" s="138"/>
-      <c r="R11" s="138"/>
+      <c r="L11" s="143"/>
+      <c r="R11" s="143"/>
       <c r="S11" s="1" t="s">
         <v>194</v>
       </c>
@@ -21379,7 +21335,7 @@
       <c r="W11" s="94">
         <v>107532.16100000002</v>
       </c>
-      <c r="X11" s="138"/>
+      <c r="X11" s="143"/>
       <c r="Y11" t="s">
         <v>211</v>
       </c>
@@ -21398,7 +21354,7 @@
       <c r="AD11" s="103">
         <v>182297.00820000007</v>
       </c>
-      <c r="AE11" s="138"/>
+      <c r="AE11" s="143"/>
       <c r="AF11" s="36" t="s">
         <v>189</v>
       </c>
@@ -21408,7 +21364,7 @@
       <c r="AH11" s="103">
         <v>2746.0670000000005</v>
       </c>
-      <c r="AI11" s="138"/>
+      <c r="AI11" s="143"/>
       <c r="AJ11" s="108" t="s">
         <v>233</v>
       </c>
@@ -21419,14 +21375,14 @@
         <f t="shared" ref="AL11:AL13" si="1">AK11-AK10</f>
         <v>6851.9480000000003</v>
       </c>
-      <c r="AO11" s="138"/>
+      <c r="AO11" s="143"/>
     </row>
     <row r="12" spans="2:45" x14ac:dyDescent="0.3">
-      <c r="B12" s="219"/>
-      <c r="C12" s="220"/>
-      <c r="D12" s="138"/>
-      <c r="L12" s="138"/>
-      <c r="R12" s="138"/>
+      <c r="B12" s="227"/>
+      <c r="C12" s="228"/>
+      <c r="D12" s="143"/>
+      <c r="L12" s="143"/>
+      <c r="R12" s="143"/>
       <c r="S12" s="1" t="s">
         <v>195</v>
       </c>
@@ -21442,7 +21398,7 @@
       <c r="W12" s="94">
         <v>114879.9963</v>
       </c>
-      <c r="X12" s="138"/>
+      <c r="X12" s="143"/>
       <c r="Y12" t="s">
         <v>212</v>
       </c>
@@ -21461,7 +21417,7 @@
       <c r="AD12" s="103">
         <v>93237.180999999997</v>
       </c>
-      <c r="AE12" s="138"/>
+      <c r="AE12" s="143"/>
       <c r="AF12" s="36" t="s">
         <v>187</v>
       </c>
@@ -21471,7 +21427,7 @@
       <c r="AH12" s="103">
         <v>504.04666666666668</v>
       </c>
-      <c r="AI12" s="138"/>
+      <c r="AI12" s="143"/>
       <c r="AJ12" s="108" t="s">
         <v>234</v>
       </c>
@@ -21482,12 +21438,12 @@
         <f t="shared" si="1"/>
         <v>1902.2203000000009</v>
       </c>
-      <c r="AO12" s="138"/>
+      <c r="AO12" s="143"/>
     </row>
     <row r="13" spans="2:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D13" s="138"/>
-      <c r="L13" s="138"/>
-      <c r="R13" s="138"/>
+      <c r="D13" s="143"/>
+      <c r="L13" s="143"/>
+      <c r="R13" s="143"/>
       <c r="S13" s="1" t="s">
         <v>196</v>
       </c>
@@ -21503,7 +21459,7 @@
       <c r="W13" s="94">
         <v>149528.03</v>
       </c>
-      <c r="X13" s="138"/>
+      <c r="X13" s="143"/>
       <c r="Y13" t="s">
         <v>213</v>
       </c>
@@ -21522,7 +21478,7 @@
       <c r="AD13" s="103">
         <v>136082.30099999992</v>
       </c>
-      <c r="AE13" s="138"/>
+      <c r="AE13" s="143"/>
       <c r="AF13" s="36" t="s">
         <v>193</v>
       </c>
@@ -21532,7 +21488,7 @@
       <c r="AH13" s="103">
         <v>15284.193999999994</v>
       </c>
-      <c r="AI13" s="138"/>
+      <c r="AI13" s="143"/>
       <c r="AJ13" s="108" t="s">
         <v>235</v>
       </c>
@@ -21543,17 +21499,17 @@
         <f t="shared" si="1"/>
         <v>4086.0450999999994</v>
       </c>
-      <c r="AO13" s="138"/>
+      <c r="AO13" s="143"/>
     </row>
     <row r="14" spans="2:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D14" s="138"/>
-      <c r="E14" s="181" t="s">
+      <c r="D14" s="143"/>
+      <c r="E14" s="185" t="s">
         <v>169</v>
       </c>
-      <c r="F14" s="182"/>
-      <c r="L14" s="138"/>
-      <c r="R14" s="138"/>
-      <c r="X14" s="138"/>
+      <c r="F14" s="187"/>
+      <c r="L14" s="143"/>
+      <c r="R14" s="143"/>
+      <c r="X14" s="143"/>
       <c r="Y14" t="s">
         <v>214</v>
       </c>
@@ -21572,7 +21528,7 @@
       <c r="AD14" s="103">
         <v>143787.36219999997</v>
       </c>
-      <c r="AE14" s="138"/>
+      <c r="AE14" s="143"/>
       <c r="AF14" s="36" t="s">
         <v>188</v>
       </c>
@@ -21582,7 +21538,7 @@
       <c r="AH14" s="103">
         <v>2081.0520000000001</v>
       </c>
-      <c r="AI14" s="138"/>
+      <c r="AI14" s="143"/>
       <c r="AJ14" t="s">
         <v>237</v>
       </c>
@@ -21593,17 +21549,17 @@
         <f>AK14</f>
         <v>28963.278699999999</v>
       </c>
-      <c r="AO14" s="138"/>
+      <c r="AO14" s="143"/>
     </row>
     <row r="15" spans="2:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="201" t="s">
+      <c r="B15" s="189" t="s">
         <v>168</v>
       </c>
-      <c r="C15" s="207"/>
-      <c r="D15" s="138"/>
-      <c r="L15" s="138"/>
-      <c r="R15" s="138"/>
-      <c r="X15" s="138"/>
+      <c r="C15" s="209"/>
+      <c r="D15" s="143"/>
+      <c r="L15" s="143"/>
+      <c r="R15" s="143"/>
+      <c r="X15" s="143"/>
       <c r="Y15" t="s">
         <v>215</v>
       </c>
@@ -21622,21 +21578,21 @@
       <c r="AD15" s="103">
         <v>236098.75379999998</v>
       </c>
-      <c r="AE15" s="138"/>
-      <c r="AI15" s="138"/>
-      <c r="AO15" s="138"/>
+      <c r="AE15" s="143"/>
+      <c r="AI15" s="143"/>
+      <c r="AO15" s="143"/>
     </row>
     <row r="16" spans="2:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="208"/>
-      <c r="C16" s="209"/>
-      <c r="D16" s="138"/>
-      <c r="L16" s="138"/>
-      <c r="R16" s="138"/>
-      <c r="S16" s="181" t="s">
+      <c r="B16" s="210"/>
+      <c r="C16" s="211"/>
+      <c r="D16" s="143"/>
+      <c r="L16" s="143"/>
+      <c r="R16" s="143"/>
+      <c r="S16" s="185" t="s">
         <v>198</v>
       </c>
-      <c r="T16" s="182"/>
-      <c r="X16" s="138"/>
+      <c r="T16" s="187"/>
+      <c r="X16" s="143"/>
       <c r="Y16" t="s">
         <v>216</v>
       </c>
@@ -21655,17 +21611,17 @@
       <c r="AD16" s="103">
         <v>123144.86019999997</v>
       </c>
-      <c r="AE16" s="138"/>
-      <c r="AI16" s="138"/>
-      <c r="AO16" s="138"/>
+      <c r="AE16" s="143"/>
+      <c r="AI16" s="143"/>
+      <c r="AO16" s="143"/>
     </row>
     <row r="17" spans="2:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="208"/>
-      <c r="C17" s="209"/>
-      <c r="D17" s="138"/>
-      <c r="L17" s="138"/>
-      <c r="R17" s="138"/>
-      <c r="X17" s="138"/>
+      <c r="B17" s="210"/>
+      <c r="C17" s="211"/>
+      <c r="D17" s="143"/>
+      <c r="L17" s="143"/>
+      <c r="R17" s="143"/>
+      <c r="X17" s="143"/>
       <c r="Y17" t="s">
         <v>217</v>
       </c>
@@ -21684,25 +21640,25 @@
       <c r="AD17" s="103">
         <v>133764.37199999997</v>
       </c>
-      <c r="AE17" s="138"/>
-      <c r="AF17" s="181" t="s">
+      <c r="AE17" s="143"/>
+      <c r="AF17" s="185" t="s">
         <v>226</v>
       </c>
-      <c r="AG17" s="182"/>
-      <c r="AI17" s="138"/>
-      <c r="AJ17" s="181" t="s">
+      <c r="AG17" s="187"/>
+      <c r="AI17" s="143"/>
+      <c r="AJ17" s="185" t="s">
         <v>238</v>
       </c>
-      <c r="AK17" s="182"/>
-      <c r="AO17" s="138"/>
+      <c r="AK17" s="187"/>
+      <c r="AO17" s="143"/>
     </row>
     <row r="18" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="B18" s="210"/>
-      <c r="C18" s="211"/>
-      <c r="D18" s="138"/>
-      <c r="L18" s="138"/>
-      <c r="R18" s="138"/>
-      <c r="X18" s="138"/>
+      <c r="B18" s="212"/>
+      <c r="C18" s="213"/>
+      <c r="D18" s="143"/>
+      <c r="L18" s="143"/>
+      <c r="R18" s="143"/>
+      <c r="X18" s="143"/>
       <c r="Y18" t="s">
         <v>218</v>
       </c>
@@ -21721,16 +21677,16 @@
       <c r="AD18" s="103">
         <v>196251.95599999998</v>
       </c>
-      <c r="AE18" s="138"/>
-      <c r="AI18" s="138"/>
-      <c r="AO18" s="138"/>
+      <c r="AE18" s="143"/>
+      <c r="AI18" s="143"/>
+      <c r="AO18" s="143"/>
     </row>
     <row r="19" spans="2:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19"/>
-      <c r="D19" s="138"/>
-      <c r="L19" s="138"/>
-      <c r="R19" s="138"/>
-      <c r="X19" s="138"/>
+      <c r="D19" s="143"/>
+      <c r="L19" s="143"/>
+      <c r="R19" s="143"/>
+      <c r="X19" s="143"/>
       <c r="Y19" t="s">
         <v>219</v>
       </c>
@@ -21749,653 +21705,653 @@
       <c r="AD19" s="103">
         <v>280054.06700000004</v>
       </c>
-      <c r="AE19" s="138"/>
-      <c r="AI19" s="138"/>
-      <c r="AO19" s="138"/>
+      <c r="AE19" s="143"/>
+      <c r="AI19" s="143"/>
+      <c r="AO19" s="143"/>
     </row>
     <row r="20" spans="2:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20"/>
-      <c r="D20" s="138"/>
-      <c r="L20" s="138"/>
-      <c r="M20" s="181" t="s">
+      <c r="D20" s="143"/>
+      <c r="L20" s="143"/>
+      <c r="M20" s="185" t="s">
         <v>178</v>
       </c>
-      <c r="N20" s="182"/>
-      <c r="R20" s="138"/>
-      <c r="X20" s="138"/>
-      <c r="AE20" s="138"/>
-      <c r="AI20" s="138"/>
-      <c r="AO20" s="138"/>
+      <c r="N20" s="187"/>
+      <c r="R20" s="143"/>
+      <c r="X20" s="143"/>
+      <c r="AE20" s="143"/>
+      <c r="AI20" s="143"/>
+      <c r="AO20" s="143"/>
     </row>
     <row r="21" spans="2:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D21" s="138"/>
-      <c r="L21" s="138"/>
-      <c r="R21" s="138"/>
-      <c r="X21" s="138"/>
-      <c r="AE21" s="138"/>
-      <c r="AI21" s="138"/>
-      <c r="AO21" s="138"/>
+      <c r="D21" s="143"/>
+      <c r="L21" s="143"/>
+      <c r="R21" s="143"/>
+      <c r="X21" s="143"/>
+      <c r="AE21" s="143"/>
+      <c r="AI21" s="143"/>
+      <c r="AO21" s="143"/>
     </row>
     <row r="22" spans="2:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D22" s="138"/>
-      <c r="L22" s="138"/>
-      <c r="R22" s="138"/>
-      <c r="X22" s="138"/>
-      <c r="Y22" s="181" t="s">
+      <c r="D22" s="143"/>
+      <c r="L22" s="143"/>
+      <c r="R22" s="143"/>
+      <c r="X22" s="143"/>
+      <c r="Y22" s="185" t="s">
         <v>220</v>
       </c>
-      <c r="Z22" s="223"/>
-      <c r="AA22" s="182"/>
-      <c r="AE22" s="138"/>
-      <c r="AI22" s="138"/>
-      <c r="AO22" s="138"/>
+      <c r="Z22" s="186"/>
+      <c r="AA22" s="187"/>
+      <c r="AE22" s="143"/>
+      <c r="AI22" s="143"/>
+      <c r="AO22" s="143"/>
     </row>
     <row r="23" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="D23" s="138"/>
-      <c r="L23" s="138"/>
-      <c r="R23" s="138"/>
-      <c r="X23" s="138"/>
-      <c r="AE23" s="138"/>
-      <c r="AI23" s="138"/>
-      <c r="AO23" s="138"/>
+      <c r="D23" s="143"/>
+      <c r="L23" s="143"/>
+      <c r="R23" s="143"/>
+      <c r="X23" s="143"/>
+      <c r="AE23" s="143"/>
+      <c r="AI23" s="143"/>
+      <c r="AO23" s="143"/>
     </row>
     <row r="24" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="D24" s="138"/>
-      <c r="L24" s="138"/>
-      <c r="R24" s="138"/>
-      <c r="X24" s="138"/>
-      <c r="AE24" s="138"/>
-      <c r="AI24" s="138"/>
-      <c r="AO24" s="138"/>
+      <c r="D24" s="143"/>
+      <c r="L24" s="143"/>
+      <c r="R24" s="143"/>
+      <c r="X24" s="143"/>
+      <c r="AE24" s="143"/>
+      <c r="AI24" s="143"/>
+      <c r="AO24" s="143"/>
     </row>
     <row r="25" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="D25" s="138"/>
-      <c r="L25" s="138"/>
-      <c r="R25" s="138"/>
-      <c r="X25" s="138"/>
-      <c r="AE25" s="138"/>
-      <c r="AI25" s="138"/>
-      <c r="AO25" s="138"/>
+      <c r="D25" s="143"/>
+      <c r="L25" s="143"/>
+      <c r="R25" s="143"/>
+      <c r="X25" s="143"/>
+      <c r="AE25" s="143"/>
+      <c r="AI25" s="143"/>
+      <c r="AO25" s="143"/>
     </row>
     <row r="26" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="D26" s="138"/>
-      <c r="L26" s="138"/>
-      <c r="R26" s="138"/>
-      <c r="X26" s="138"/>
-      <c r="AE26" s="138"/>
-      <c r="AI26" s="138"/>
-      <c r="AO26" s="138"/>
+      <c r="D26" s="143"/>
+      <c r="L26" s="143"/>
+      <c r="R26" s="143"/>
+      <c r="X26" s="143"/>
+      <c r="AE26" s="143"/>
+      <c r="AI26" s="143"/>
+      <c r="AO26" s="143"/>
     </row>
     <row r="27" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="D27" s="138"/>
-      <c r="L27" s="138"/>
-      <c r="R27" s="138"/>
-      <c r="X27" s="138"/>
-      <c r="AE27" s="138"/>
-      <c r="AI27" s="138"/>
-      <c r="AO27" s="138"/>
+      <c r="D27" s="143"/>
+      <c r="L27" s="143"/>
+      <c r="R27" s="143"/>
+      <c r="X27" s="143"/>
+      <c r="AE27" s="143"/>
+      <c r="AI27" s="143"/>
+      <c r="AO27" s="143"/>
     </row>
     <row r="28" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="D28" s="138"/>
-      <c r="L28" s="138"/>
-      <c r="R28" s="138"/>
-      <c r="X28" s="138"/>
-      <c r="AE28" s="138"/>
-      <c r="AI28" s="138"/>
-      <c r="AO28" s="138"/>
+      <c r="D28" s="143"/>
+      <c r="L28" s="143"/>
+      <c r="R28" s="143"/>
+      <c r="X28" s="143"/>
+      <c r="AE28" s="143"/>
+      <c r="AI28" s="143"/>
+      <c r="AO28" s="143"/>
     </row>
     <row r="29" spans="2:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D29" s="138"/>
-      <c r="L29" s="138"/>
-      <c r="R29" s="138"/>
-      <c r="X29" s="138"/>
-      <c r="AE29" s="138"/>
-      <c r="AI29" s="138"/>
-      <c r="AO29" s="138"/>
+      <c r="D29" s="143"/>
+      <c r="L29" s="143"/>
+      <c r="R29" s="143"/>
+      <c r="X29" s="143"/>
+      <c r="AE29" s="143"/>
+      <c r="AI29" s="143"/>
+      <c r="AO29" s="143"/>
     </row>
     <row r="30" spans="2:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D30" s="138"/>
-      <c r="E30" s="221" t="s">
+      <c r="D30" s="143"/>
+      <c r="E30" s="214" t="s">
         <v>170</v>
       </c>
-      <c r="F30" s="222"/>
-      <c r="L30" s="138"/>
-      <c r="R30" s="138"/>
-      <c r="X30" s="138"/>
-      <c r="AE30" s="138"/>
-      <c r="AI30" s="138"/>
-      <c r="AO30" s="138"/>
+      <c r="F30" s="215"/>
+      <c r="L30" s="143"/>
+      <c r="R30" s="143"/>
+      <c r="X30" s="143"/>
+      <c r="AE30" s="143"/>
+      <c r="AI30" s="143"/>
+      <c r="AO30" s="143"/>
     </row>
     <row r="31" spans="2:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C31" s="92"/>
-      <c r="D31" s="138"/>
-      <c r="L31" s="138"/>
-      <c r="R31" s="138"/>
-      <c r="X31" s="138"/>
-      <c r="AE31" s="138"/>
-      <c r="AI31" s="138"/>
-      <c r="AO31" s="138"/>
+      <c r="D31" s="143"/>
+      <c r="L31" s="143"/>
+      <c r="R31" s="143"/>
+      <c r="X31" s="143"/>
+      <c r="AE31" s="143"/>
+      <c r="AI31" s="143"/>
+      <c r="AO31" s="143"/>
     </row>
     <row r="32" spans="2:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="201" t="s">
+      <c r="B32" s="189" t="s">
         <v>201</v>
       </c>
-      <c r="C32" s="207"/>
-      <c r="D32" s="138"/>
-      <c r="L32" s="138"/>
-      <c r="R32" s="138"/>
-      <c r="S32" s="181" t="s">
+      <c r="C32" s="209"/>
+      <c r="D32" s="143"/>
+      <c r="L32" s="143"/>
+      <c r="R32" s="143"/>
+      <c r="S32" s="185" t="s">
         <v>199</v>
       </c>
-      <c r="T32" s="182"/>
-      <c r="X32" s="138"/>
-      <c r="AE32" s="138"/>
-      <c r="AI32" s="138"/>
-      <c r="AO32" s="138"/>
+      <c r="T32" s="187"/>
+      <c r="X32" s="143"/>
+      <c r="AE32" s="143"/>
+      <c r="AI32" s="143"/>
+      <c r="AO32" s="143"/>
     </row>
     <row r="33" spans="2:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="208"/>
-      <c r="C33" s="209"/>
-      <c r="D33" s="138"/>
-      <c r="L33" s="138"/>
-      <c r="M33" s="181" t="s">
+      <c r="B33" s="210"/>
+      <c r="C33" s="211"/>
+      <c r="D33" s="143"/>
+      <c r="L33" s="143"/>
+      <c r="M33" s="185" t="s">
         <v>182</v>
       </c>
-      <c r="N33" s="182"/>
-      <c r="R33" s="138"/>
-      <c r="X33" s="138"/>
-      <c r="AE33" s="138"/>
-      <c r="AI33" s="138"/>
-      <c r="AO33" s="138"/>
+      <c r="N33" s="187"/>
+      <c r="R33" s="143"/>
+      <c r="X33" s="143"/>
+      <c r="AE33" s="143"/>
+      <c r="AI33" s="143"/>
+      <c r="AO33" s="143"/>
     </row>
     <row r="34" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="B34" s="208"/>
-      <c r="C34" s="209"/>
-      <c r="D34" s="138"/>
-      <c r="L34" s="138"/>
-      <c r="R34" s="138"/>
-      <c r="X34" s="138"/>
-      <c r="AE34" s="138"/>
-      <c r="AI34" s="138"/>
-      <c r="AO34" s="138"/>
+      <c r="B34" s="210"/>
+      <c r="C34" s="211"/>
+      <c r="D34" s="143"/>
+      <c r="L34" s="143"/>
+      <c r="R34" s="143"/>
+      <c r="X34" s="143"/>
+      <c r="AE34" s="143"/>
+      <c r="AI34" s="143"/>
+      <c r="AO34" s="143"/>
     </row>
     <row r="35" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="B35" s="208"/>
-      <c r="C35" s="209"/>
-      <c r="D35" s="138"/>
-      <c r="L35" s="138"/>
-      <c r="R35" s="138"/>
-      <c r="X35" s="138"/>
-      <c r="AE35" s="138"/>
-      <c r="AI35" s="138"/>
-      <c r="AO35" s="138"/>
+      <c r="B35" s="210"/>
+      <c r="C35" s="211"/>
+      <c r="D35" s="143"/>
+      <c r="L35" s="143"/>
+      <c r="R35" s="143"/>
+      <c r="X35" s="143"/>
+      <c r="AE35" s="143"/>
+      <c r="AI35" s="143"/>
+      <c r="AO35" s="143"/>
     </row>
     <row r="36" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="B36" s="208"/>
-      <c r="C36" s="209"/>
-      <c r="D36" s="138"/>
-      <c r="L36" s="138"/>
-      <c r="R36" s="138"/>
-      <c r="X36" s="138"/>
-      <c r="AE36" s="138"/>
-      <c r="AI36" s="138"/>
-      <c r="AO36" s="138"/>
+      <c r="B36" s="210"/>
+      <c r="C36" s="211"/>
+      <c r="D36" s="143"/>
+      <c r="L36" s="143"/>
+      <c r="R36" s="143"/>
+      <c r="X36" s="143"/>
+      <c r="AE36" s="143"/>
+      <c r="AI36" s="143"/>
+      <c r="AO36" s="143"/>
     </row>
     <row r="37" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="B37" s="208"/>
-      <c r="C37" s="209"/>
-      <c r="D37" s="138"/>
-      <c r="L37" s="138"/>
-      <c r="R37" s="138"/>
-      <c r="X37" s="138"/>
-      <c r="AE37" s="138"/>
-      <c r="AI37" s="138"/>
-      <c r="AO37" s="138"/>
+      <c r="B37" s="210"/>
+      <c r="C37" s="211"/>
+      <c r="D37" s="143"/>
+      <c r="L37" s="143"/>
+      <c r="R37" s="143"/>
+      <c r="X37" s="143"/>
+      <c r="AE37" s="143"/>
+      <c r="AI37" s="143"/>
+      <c r="AO37" s="143"/>
     </row>
     <row r="38" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="B38" s="208"/>
-      <c r="C38" s="209"/>
-      <c r="D38" s="138"/>
-      <c r="L38" s="138"/>
-      <c r="R38" s="138"/>
-      <c r="X38" s="138"/>
-      <c r="AE38" s="138"/>
-      <c r="AI38" s="138"/>
-      <c r="AO38" s="138"/>
+      <c r="B38" s="210"/>
+      <c r="C38" s="211"/>
+      <c r="D38" s="143"/>
+      <c r="L38" s="143"/>
+      <c r="R38" s="143"/>
+      <c r="X38" s="143"/>
+      <c r="AE38" s="143"/>
+      <c r="AI38" s="143"/>
+      <c r="AO38" s="143"/>
     </row>
     <row r="39" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="B39" s="210"/>
-      <c r="C39" s="211"/>
-      <c r="D39" s="138"/>
-      <c r="L39" s="138"/>
-      <c r="R39" s="138"/>
-      <c r="X39" s="138"/>
-      <c r="AE39" s="138"/>
-      <c r="AI39" s="138"/>
-      <c r="AO39" s="138"/>
+      <c r="B39" s="212"/>
+      <c r="C39" s="213"/>
+      <c r="D39" s="143"/>
+      <c r="L39" s="143"/>
+      <c r="R39" s="143"/>
+      <c r="X39" s="143"/>
+      <c r="AE39" s="143"/>
+      <c r="AI39" s="143"/>
+      <c r="AO39" s="143"/>
     </row>
     <row r="40" spans="2:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40"/>
-      <c r="D40" s="138"/>
-      <c r="L40" s="138"/>
-      <c r="R40" s="138"/>
-      <c r="X40" s="138"/>
-      <c r="AE40" s="138"/>
-      <c r="AI40" s="138"/>
-      <c r="AO40" s="138"/>
+      <c r="D40" s="143"/>
+      <c r="L40" s="143"/>
+      <c r="R40" s="143"/>
+      <c r="X40" s="143"/>
+      <c r="AE40" s="143"/>
+      <c r="AI40" s="143"/>
+      <c r="AO40" s="143"/>
     </row>
     <row r="41" spans="2:41" x14ac:dyDescent="0.3">
       <c r="B41"/>
-      <c r="D41" s="138"/>
-      <c r="L41" s="138"/>
-      <c r="R41" s="138"/>
-      <c r="X41" s="138"/>
-      <c r="AE41" s="138"/>
-      <c r="AF41" s="174" t="s">
+      <c r="D41" s="143"/>
+      <c r="L41" s="143"/>
+      <c r="R41" s="143"/>
+      <c r="X41" s="143"/>
+      <c r="AE41" s="143"/>
+      <c r="AF41" s="179" t="s">
         <v>227</v>
       </c>
-      <c r="AG41" s="175"/>
-      <c r="AI41" s="138"/>
-      <c r="AO41" s="138"/>
+      <c r="AG41" s="180"/>
+      <c r="AI41" s="143"/>
+      <c r="AO41" s="143"/>
     </row>
     <row r="42" spans="2:41" x14ac:dyDescent="0.3">
       <c r="B42"/>
-      <c r="D42" s="138"/>
-      <c r="L42" s="138"/>
-      <c r="R42" s="138"/>
-      <c r="X42" s="138"/>
-      <c r="AE42" s="138"/>
-      <c r="AF42" s="176"/>
-      <c r="AG42" s="177"/>
-      <c r="AI42" s="138"/>
-      <c r="AO42" s="138"/>
+      <c r="D42" s="143"/>
+      <c r="L42" s="143"/>
+      <c r="R42" s="143"/>
+      <c r="X42" s="143"/>
+      <c r="AE42" s="143"/>
+      <c r="AF42" s="181"/>
+      <c r="AG42" s="182"/>
+      <c r="AI42" s="143"/>
+      <c r="AO42" s="143"/>
     </row>
     <row r="43" spans="2:41" x14ac:dyDescent="0.3">
       <c r="B43"/>
-      <c r="D43" s="138"/>
-      <c r="L43" s="138"/>
-      <c r="R43" s="138"/>
-      <c r="X43" s="138"/>
-      <c r="AE43" s="138"/>
-      <c r="AF43" s="176"/>
-      <c r="AG43" s="177"/>
-      <c r="AI43" s="138"/>
-      <c r="AO43" s="138"/>
+      <c r="D43" s="143"/>
+      <c r="L43" s="143"/>
+      <c r="R43" s="143"/>
+      <c r="X43" s="143"/>
+      <c r="AE43" s="143"/>
+      <c r="AF43" s="181"/>
+      <c r="AG43" s="182"/>
+      <c r="AI43" s="143"/>
+      <c r="AO43" s="143"/>
     </row>
     <row r="44" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="D44" s="138"/>
-      <c r="L44" s="138"/>
-      <c r="R44" s="138"/>
-      <c r="X44" s="138"/>
-      <c r="AE44" s="138"/>
-      <c r="AF44" s="176"/>
-      <c r="AG44" s="177"/>
-      <c r="AI44" s="138"/>
-      <c r="AO44" s="138"/>
+      <c r="D44" s="143"/>
+      <c r="L44" s="143"/>
+      <c r="R44" s="143"/>
+      <c r="X44" s="143"/>
+      <c r="AE44" s="143"/>
+      <c r="AF44" s="181"/>
+      <c r="AG44" s="182"/>
+      <c r="AI44" s="143"/>
+      <c r="AO44" s="143"/>
     </row>
     <row r="45" spans="2:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D45" s="138"/>
-      <c r="L45" s="138"/>
-      <c r="R45" s="138"/>
-      <c r="X45" s="138"/>
-      <c r="AE45" s="138"/>
-      <c r="AF45" s="178"/>
-      <c r="AG45" s="179"/>
-      <c r="AI45" s="138"/>
-      <c r="AO45" s="138"/>
+      <c r="D45" s="143"/>
+      <c r="L45" s="143"/>
+      <c r="R45" s="143"/>
+      <c r="X45" s="143"/>
+      <c r="AE45" s="143"/>
+      <c r="AF45" s="183"/>
+      <c r="AG45" s="184"/>
+      <c r="AI45" s="143"/>
+      <c r="AO45" s="143"/>
     </row>
     <row r="46" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="D46" s="138"/>
-      <c r="L46" s="138"/>
-      <c r="R46" s="138"/>
-      <c r="X46" s="138"/>
-      <c r="AE46" s="138"/>
-      <c r="AI46" s="138"/>
-      <c r="AO46" s="138"/>
+      <c r="D46" s="143"/>
+      <c r="L46" s="143"/>
+      <c r="R46" s="143"/>
+      <c r="X46" s="143"/>
+      <c r="AE46" s="143"/>
+      <c r="AI46" s="143"/>
+      <c r="AO46" s="143"/>
     </row>
     <row r="47" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="D47" s="138"/>
-      <c r="L47" s="138"/>
-      <c r="R47" s="138"/>
-      <c r="X47" s="138"/>
-      <c r="AE47" s="138"/>
-      <c r="AI47" s="138"/>
-      <c r="AO47" s="138"/>
+      <c r="D47" s="143"/>
+      <c r="L47" s="143"/>
+      <c r="R47" s="143"/>
+      <c r="X47" s="143"/>
+      <c r="AE47" s="143"/>
+      <c r="AI47" s="143"/>
+      <c r="AO47" s="143"/>
     </row>
     <row r="48" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="D48" s="138"/>
-      <c r="L48" s="138"/>
-      <c r="R48" s="138"/>
-      <c r="X48" s="138"/>
-      <c r="AE48" s="138"/>
-      <c r="AI48" s="138"/>
-      <c r="AO48" s="138"/>
+      <c r="D48" s="143"/>
+      <c r="L48" s="143"/>
+      <c r="R48" s="143"/>
+      <c r="X48" s="143"/>
+      <c r="AE48" s="143"/>
+      <c r="AI48" s="143"/>
+      <c r="AO48" s="143"/>
     </row>
     <row r="49" spans="4:41" x14ac:dyDescent="0.3">
-      <c r="D49" s="138"/>
-      <c r="L49" s="138"/>
-      <c r="R49" s="138"/>
-      <c r="X49" s="138"/>
-      <c r="AE49" s="138"/>
-      <c r="AI49" s="138"/>
-      <c r="AO49" s="138"/>
+      <c r="D49" s="143"/>
+      <c r="L49" s="143"/>
+      <c r="R49" s="143"/>
+      <c r="X49" s="143"/>
+      <c r="AE49" s="143"/>
+      <c r="AI49" s="143"/>
+      <c r="AO49" s="143"/>
     </row>
     <row r="50" spans="4:41" x14ac:dyDescent="0.3">
-      <c r="D50" s="138"/>
-      <c r="L50" s="138"/>
-      <c r="R50" s="138"/>
-      <c r="X50" s="138"/>
-      <c r="AE50" s="138"/>
-      <c r="AI50" s="138"/>
-      <c r="AO50" s="138"/>
+      <c r="D50" s="143"/>
+      <c r="L50" s="143"/>
+      <c r="R50" s="143"/>
+      <c r="X50" s="143"/>
+      <c r="AE50" s="143"/>
+      <c r="AI50" s="143"/>
+      <c r="AO50" s="143"/>
     </row>
     <row r="51" spans="4:41" x14ac:dyDescent="0.3">
-      <c r="D51" s="138"/>
-      <c r="L51" s="138"/>
-      <c r="R51" s="138"/>
-      <c r="X51" s="138"/>
-      <c r="AE51" s="138"/>
-      <c r="AI51" s="138"/>
-      <c r="AO51" s="138"/>
+      <c r="D51" s="143"/>
+      <c r="L51" s="143"/>
+      <c r="R51" s="143"/>
+      <c r="X51" s="143"/>
+      <c r="AE51" s="143"/>
+      <c r="AI51" s="143"/>
+      <c r="AO51" s="143"/>
     </row>
     <row r="52" spans="4:41" x14ac:dyDescent="0.3">
-      <c r="D52" s="138"/>
-      <c r="L52" s="138"/>
-      <c r="R52" s="138"/>
-      <c r="X52" s="138"/>
-      <c r="AE52" s="138"/>
-      <c r="AI52" s="138"/>
-      <c r="AO52" s="138"/>
+      <c r="D52" s="143"/>
+      <c r="L52" s="143"/>
+      <c r="R52" s="143"/>
+      <c r="X52" s="143"/>
+      <c r="AE52" s="143"/>
+      <c r="AI52" s="143"/>
+      <c r="AO52" s="143"/>
     </row>
     <row r="53" spans="4:41" x14ac:dyDescent="0.3">
-      <c r="D53" s="138"/>
-      <c r="L53" s="138"/>
-      <c r="R53" s="138"/>
-      <c r="X53" s="138"/>
-      <c r="AE53" s="138"/>
-      <c r="AI53" s="138"/>
-      <c r="AO53" s="138"/>
+      <c r="D53" s="143"/>
+      <c r="L53" s="143"/>
+      <c r="R53" s="143"/>
+      <c r="X53" s="143"/>
+      <c r="AE53" s="143"/>
+      <c r="AI53" s="143"/>
+      <c r="AO53" s="143"/>
     </row>
     <row r="54" spans="4:41" x14ac:dyDescent="0.3">
-      <c r="D54" s="138"/>
-      <c r="L54" s="138"/>
-      <c r="R54" s="138"/>
-      <c r="X54" s="138"/>
-      <c r="AE54" s="138"/>
-      <c r="AI54" s="138"/>
-      <c r="AO54" s="138"/>
+      <c r="D54" s="143"/>
+      <c r="L54" s="143"/>
+      <c r="R54" s="143"/>
+      <c r="X54" s="143"/>
+      <c r="AE54" s="143"/>
+      <c r="AI54" s="143"/>
+      <c r="AO54" s="143"/>
     </row>
     <row r="55" spans="4:41" x14ac:dyDescent="0.3">
-      <c r="D55" s="138"/>
-      <c r="L55" s="138"/>
-      <c r="R55" s="138"/>
-      <c r="X55" s="138"/>
-      <c r="AE55" s="138"/>
-      <c r="AI55" s="138"/>
-      <c r="AO55" s="138"/>
+      <c r="D55" s="143"/>
+      <c r="L55" s="143"/>
+      <c r="R55" s="143"/>
+      <c r="X55" s="143"/>
+      <c r="AE55" s="143"/>
+      <c r="AI55" s="143"/>
+      <c r="AO55" s="143"/>
     </row>
     <row r="56" spans="4:41" x14ac:dyDescent="0.3">
-      <c r="D56" s="138"/>
-      <c r="L56" s="138"/>
-      <c r="R56" s="138"/>
-      <c r="X56" s="138"/>
-      <c r="AE56" s="138"/>
-      <c r="AI56" s="138"/>
-      <c r="AO56" s="138"/>
+      <c r="D56" s="143"/>
+      <c r="L56" s="143"/>
+      <c r="R56" s="143"/>
+      <c r="X56" s="143"/>
+      <c r="AE56" s="143"/>
+      <c r="AI56" s="143"/>
+      <c r="AO56" s="143"/>
     </row>
     <row r="57" spans="4:41" x14ac:dyDescent="0.3">
-      <c r="D57" s="138"/>
-      <c r="L57" s="138"/>
-      <c r="R57" s="138"/>
-      <c r="X57" s="138"/>
-      <c r="AE57" s="138"/>
-      <c r="AI57" s="138"/>
-      <c r="AO57" s="138"/>
+      <c r="D57" s="143"/>
+      <c r="L57" s="143"/>
+      <c r="R57" s="143"/>
+      <c r="X57" s="143"/>
+      <c r="AE57" s="143"/>
+      <c r="AI57" s="143"/>
+      <c r="AO57" s="143"/>
     </row>
     <row r="58" spans="4:41" x14ac:dyDescent="0.3">
-      <c r="D58" s="138"/>
-      <c r="L58" s="138"/>
-      <c r="R58" s="138"/>
-      <c r="X58" s="138"/>
-      <c r="AE58" s="138"/>
-      <c r="AI58" s="138"/>
-      <c r="AO58" s="138"/>
+      <c r="D58" s="143"/>
+      <c r="L58" s="143"/>
+      <c r="R58" s="143"/>
+      <c r="X58" s="143"/>
+      <c r="AE58" s="143"/>
+      <c r="AI58" s="143"/>
+      <c r="AO58" s="143"/>
     </row>
     <row r="59" spans="4:41" x14ac:dyDescent="0.3">
-      <c r="D59" s="138"/>
-      <c r="L59" s="138"/>
-      <c r="R59" s="138"/>
-      <c r="X59" s="138"/>
-      <c r="AE59" s="138"/>
-      <c r="AI59" s="138"/>
-      <c r="AO59" s="138"/>
+      <c r="D59" s="143"/>
+      <c r="L59" s="143"/>
+      <c r="R59" s="143"/>
+      <c r="X59" s="143"/>
+      <c r="AE59" s="143"/>
+      <c r="AI59" s="143"/>
+      <c r="AO59" s="143"/>
     </row>
     <row r="60" spans="4:41" x14ac:dyDescent="0.3">
-      <c r="D60" s="138"/>
-      <c r="L60" s="138"/>
-      <c r="R60" s="138"/>
-      <c r="X60" s="138"/>
-      <c r="AE60" s="138"/>
-      <c r="AI60" s="138"/>
-      <c r="AO60" s="138"/>
+      <c r="D60" s="143"/>
+      <c r="L60" s="143"/>
+      <c r="R60" s="143"/>
+      <c r="X60" s="143"/>
+      <c r="AE60" s="143"/>
+      <c r="AI60" s="143"/>
+      <c r="AO60" s="143"/>
     </row>
     <row r="61" spans="4:41" x14ac:dyDescent="0.3">
-      <c r="D61" s="138"/>
-      <c r="L61" s="138"/>
-      <c r="R61" s="138"/>
-      <c r="X61" s="138"/>
-      <c r="AE61" s="138"/>
-      <c r="AI61" s="138"/>
-      <c r="AO61" s="138"/>
+      <c r="D61" s="143"/>
+      <c r="L61" s="143"/>
+      <c r="R61" s="143"/>
+      <c r="X61" s="143"/>
+      <c r="AE61" s="143"/>
+      <c r="AI61" s="143"/>
+      <c r="AO61" s="143"/>
     </row>
     <row r="62" spans="4:41" x14ac:dyDescent="0.3">
-      <c r="D62" s="138"/>
-      <c r="L62" s="138"/>
-      <c r="R62" s="138"/>
-      <c r="X62" s="138"/>
-      <c r="AE62" s="138"/>
-      <c r="AI62" s="138"/>
-      <c r="AO62" s="138"/>
+      <c r="D62" s="143"/>
+      <c r="L62" s="143"/>
+      <c r="R62" s="143"/>
+      <c r="X62" s="143"/>
+      <c r="AE62" s="143"/>
+      <c r="AI62" s="143"/>
+      <c r="AO62" s="143"/>
     </row>
     <row r="63" spans="4:41" x14ac:dyDescent="0.3">
-      <c r="D63" s="138"/>
-      <c r="L63" s="138"/>
-      <c r="R63" s="138"/>
-      <c r="X63" s="138"/>
-      <c r="AE63" s="138"/>
-      <c r="AI63" s="138"/>
-      <c r="AO63" s="138"/>
+      <c r="D63" s="143"/>
+      <c r="L63" s="143"/>
+      <c r="R63" s="143"/>
+      <c r="X63" s="143"/>
+      <c r="AE63" s="143"/>
+      <c r="AI63" s="143"/>
+      <c r="AO63" s="143"/>
     </row>
     <row r="64" spans="4:41" x14ac:dyDescent="0.3">
-      <c r="D64" s="138"/>
-      <c r="L64" s="138"/>
-      <c r="R64" s="138"/>
-      <c r="X64" s="138"/>
-      <c r="AE64" s="138"/>
-      <c r="AI64" s="138"/>
-      <c r="AO64" s="138"/>
+      <c r="D64" s="143"/>
+      <c r="L64" s="143"/>
+      <c r="R64" s="143"/>
+      <c r="X64" s="143"/>
+      <c r="AE64" s="143"/>
+      <c r="AI64" s="143"/>
+      <c r="AO64" s="143"/>
     </row>
     <row r="65" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="D65" s="138"/>
-      <c r="L65" s="138"/>
-      <c r="R65" s="138"/>
-      <c r="X65" s="138"/>
-      <c r="AE65" s="138"/>
-      <c r="AI65" s="138"/>
-      <c r="AO65" s="138"/>
-    </row>
-    <row r="66" spans="1:41" s="184" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="183"/>
+      <c r="D65" s="143"/>
+      <c r="L65" s="143"/>
+      <c r="R65" s="143"/>
+      <c r="X65" s="143"/>
+      <c r="AE65" s="143"/>
+      <c r="AI65" s="143"/>
+      <c r="AO65" s="143"/>
+    </row>
+    <row r="66" spans="1:41" s="199" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="198"/>
     </row>
     <row r="67" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="185" t="s">
+      <c r="A67" s="200" t="s">
         <v>245</v>
       </c>
-      <c r="B67" s="186"/>
-      <c r="C67" s="186"/>
-      <c r="D67" s="186"/>
-      <c r="E67" s="186"/>
-      <c r="F67" s="186"/>
-      <c r="G67" s="186"/>
-      <c r="H67" s="186"/>
-      <c r="I67" s="186"/>
-      <c r="J67" s="186"/>
-      <c r="K67" s="187"/>
-      <c r="M67" s="212" t="s">
+      <c r="B67" s="201"/>
+      <c r="C67" s="201"/>
+      <c r="D67" s="201"/>
+      <c r="E67" s="201"/>
+      <c r="F67" s="201"/>
+      <c r="G67" s="201"/>
+      <c r="H67" s="201"/>
+      <c r="I67" s="201"/>
+      <c r="J67" s="201"/>
+      <c r="K67" s="202"/>
+      <c r="M67" s="195" t="s">
         <v>254</v>
       </c>
-      <c r="N67" s="213"/>
-      <c r="O67" s="213"/>
-      <c r="P67" s="213"/>
-      <c r="Q67" s="214"/>
-      <c r="S67" s="212" t="s">
+      <c r="N67" s="196"/>
+      <c r="O67" s="196"/>
+      <c r="P67" s="196"/>
+      <c r="Q67" s="197"/>
+      <c r="S67" s="195" t="s">
         <v>253</v>
       </c>
-      <c r="T67" s="213"/>
-      <c r="U67" s="213"/>
-      <c r="V67" s="213"/>
-      <c r="W67" s="214"/>
+      <c r="T67" s="196"/>
+      <c r="U67" s="196"/>
+      <c r="V67" s="196"/>
+      <c r="W67" s="197"/>
     </row>
     <row r="68" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="188" t="s">
+      <c r="A68" s="203" t="s">
         <v>244</v>
       </c>
-      <c r="B68" s="189"/>
-      <c r="C68" s="189"/>
-      <c r="D68" s="189"/>
-      <c r="E68" s="189"/>
-      <c r="F68" s="189"/>
-      <c r="G68" s="189"/>
-      <c r="H68" s="189"/>
-      <c r="I68" s="189"/>
-      <c r="J68" s="189"/>
-      <c r="K68" s="190"/>
-      <c r="M68" s="201" t="s">
+      <c r="B68" s="204"/>
+      <c r="C68" s="204"/>
+      <c r="D68" s="204"/>
+      <c r="E68" s="204"/>
+      <c r="F68" s="204"/>
+      <c r="G68" s="204"/>
+      <c r="H68" s="204"/>
+      <c r="I68" s="204"/>
+      <c r="J68" s="204"/>
+      <c r="K68" s="205"/>
+      <c r="M68" s="189" t="s">
         <v>250</v>
       </c>
-      <c r="N68" s="207"/>
+      <c r="N68" s="209"/>
       <c r="O68" s="1"/>
-      <c r="P68" s="201" t="s">
+      <c r="P68" s="189" t="s">
         <v>249</v>
       </c>
-      <c r="Q68" s="207"/>
-      <c r="S68" s="201" t="s">
+      <c r="Q68" s="209"/>
+      <c r="S68" s="189" t="s">
         <v>255</v>
       </c>
-      <c r="T68" s="202"/>
-      <c r="V68" s="201" t="s">
+      <c r="T68" s="190"/>
+      <c r="V68" s="189" t="s">
         <v>257</v>
       </c>
-      <c r="W68" s="207"/>
+      <c r="W68" s="209"/>
     </row>
     <row r="69" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="188" t="s">
+      <c r="A69" s="203" t="s">
         <v>256</v>
       </c>
-      <c r="B69" s="189"/>
-      <c r="C69" s="189"/>
-      <c r="D69" s="189"/>
-      <c r="E69" s="189"/>
-      <c r="F69" s="189"/>
-      <c r="G69" s="189"/>
-      <c r="H69" s="189"/>
-      <c r="I69" s="189"/>
-      <c r="J69" s="189"/>
-      <c r="K69" s="190"/>
-      <c r="M69" s="208"/>
-      <c r="N69" s="209"/>
+      <c r="B69" s="204"/>
+      <c r="C69" s="204"/>
+      <c r="D69" s="204"/>
+      <c r="E69" s="204"/>
+      <c r="F69" s="204"/>
+      <c r="G69" s="204"/>
+      <c r="H69" s="204"/>
+      <c r="I69" s="204"/>
+      <c r="J69" s="204"/>
+      <c r="K69" s="205"/>
+      <c r="M69" s="210"/>
+      <c r="N69" s="211"/>
       <c r="O69" s="1"/>
-      <c r="P69" s="208"/>
-      <c r="Q69" s="209"/>
-      <c r="S69" s="203"/>
-      <c r="T69" s="204"/>
-      <c r="V69" s="208"/>
-      <c r="W69" s="209"/>
+      <c r="P69" s="210"/>
+      <c r="Q69" s="211"/>
+      <c r="S69" s="191"/>
+      <c r="T69" s="192"/>
+      <c r="V69" s="210"/>
+      <c r="W69" s="211"/>
     </row>
     <row r="70" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="191" t="s">
+      <c r="A70" s="206" t="s">
         <v>246</v>
       </c>
-      <c r="B70" s="192"/>
-      <c r="C70" s="192"/>
-      <c r="D70" s="192"/>
-      <c r="E70" s="192"/>
-      <c r="F70" s="192"/>
-      <c r="G70" s="192"/>
-      <c r="H70" s="192"/>
-      <c r="I70" s="192"/>
-      <c r="J70" s="192"/>
-      <c r="K70" s="193"/>
-      <c r="M70" s="208"/>
-      <c r="N70" s="209"/>
+      <c r="B70" s="207"/>
+      <c r="C70" s="207"/>
+      <c r="D70" s="207"/>
+      <c r="E70" s="207"/>
+      <c r="F70" s="207"/>
+      <c r="G70" s="207"/>
+      <c r="H70" s="207"/>
+      <c r="I70" s="207"/>
+      <c r="J70" s="207"/>
+      <c r="K70" s="208"/>
+      <c r="M70" s="210"/>
+      <c r="N70" s="211"/>
       <c r="O70" s="1"/>
-      <c r="P70" s="208"/>
-      <c r="Q70" s="209"/>
-      <c r="S70" s="203"/>
-      <c r="T70" s="204"/>
-      <c r="V70" s="208"/>
-      <c r="W70" s="209"/>
+      <c r="P70" s="210"/>
+      <c r="Q70" s="211"/>
+      <c r="S70" s="191"/>
+      <c r="T70" s="192"/>
+      <c r="V70" s="210"/>
+      <c r="W70" s="211"/>
     </row>
     <row r="71" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="191"/>
-      <c r="B71" s="192"/>
-      <c r="C71" s="192"/>
-      <c r="D71" s="192"/>
-      <c r="E71" s="192"/>
-      <c r="F71" s="192"/>
-      <c r="G71" s="192"/>
-      <c r="H71" s="192"/>
-      <c r="I71" s="192"/>
-      <c r="J71" s="192"/>
-      <c r="K71" s="193"/>
-      <c r="M71" s="208"/>
-      <c r="N71" s="209"/>
+      <c r="A71" s="206"/>
+      <c r="B71" s="207"/>
+      <c r="C71" s="207"/>
+      <c r="D71" s="207"/>
+      <c r="E71" s="207"/>
+      <c r="F71" s="207"/>
+      <c r="G71" s="207"/>
+      <c r="H71" s="207"/>
+      <c r="I71" s="207"/>
+      <c r="J71" s="207"/>
+      <c r="K71" s="208"/>
+      <c r="M71" s="210"/>
+      <c r="N71" s="211"/>
       <c r="O71" s="1"/>
-      <c r="P71" s="208"/>
-      <c r="Q71" s="209"/>
-      <c r="S71" s="203"/>
-      <c r="T71" s="204"/>
-      <c r="V71" s="208"/>
-      <c r="W71" s="209"/>
+      <c r="P71" s="210"/>
+      <c r="Q71" s="211"/>
+      <c r="S71" s="191"/>
+      <c r="T71" s="192"/>
+      <c r="V71" s="210"/>
+      <c r="W71" s="211"/>
     </row>
     <row r="72" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="194" t="s">
+      <c r="A72" s="217" t="s">
         <v>247</v>
       </c>
-      <c r="B72" s="195"/>
-      <c r="C72" s="195"/>
-      <c r="D72" s="195"/>
-      <c r="E72" s="195"/>
-      <c r="F72" s="195"/>
-      <c r="G72" s="195"/>
-      <c r="H72" s="195"/>
-      <c r="I72" s="195"/>
-      <c r="J72" s="195"/>
-      <c r="K72" s="196"/>
-      <c r="M72" s="210"/>
-      <c r="N72" s="211"/>
+      <c r="B72" s="218"/>
+      <c r="C72" s="218"/>
+      <c r="D72" s="218"/>
+      <c r="E72" s="218"/>
+      <c r="F72" s="218"/>
+      <c r="G72" s="218"/>
+      <c r="H72" s="218"/>
+      <c r="I72" s="218"/>
+      <c r="J72" s="218"/>
+      <c r="K72" s="219"/>
+      <c r="M72" s="212"/>
+      <c r="N72" s="213"/>
       <c r="O72" s="1"/>
-      <c r="P72" s="210"/>
-      <c r="Q72" s="211"/>
-      <c r="S72" s="205"/>
-      <c r="T72" s="206"/>
-      <c r="V72" s="210"/>
-      <c r="W72" s="211"/>
+      <c r="P72" s="212"/>
+      <c r="Q72" s="213"/>
+      <c r="S72" s="193"/>
+      <c r="T72" s="194"/>
+      <c r="V72" s="212"/>
+      <c r="W72" s="213"/>
     </row>
     <row r="73" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="197" t="s">
+      <c r="A73" s="220" t="s">
         <v>248</v>
       </c>
-      <c r="B73" s="198"/>
-      <c r="C73" s="198"/>
-      <c r="D73" s="198"/>
-      <c r="E73" s="198"/>
-      <c r="F73" s="198"/>
-      <c r="G73" s="198"/>
-      <c r="H73" s="198"/>
-      <c r="I73" s="198"/>
-      <c r="J73" s="198"/>
-      <c r="K73" s="199"/>
+      <c r="B73" s="221"/>
+      <c r="C73" s="221"/>
+      <c r="D73" s="221"/>
+      <c r="E73" s="221"/>
+      <c r="F73" s="221"/>
+      <c r="G73" s="221"/>
+      <c r="H73" s="221"/>
+      <c r="I73" s="221"/>
+      <c r="J73" s="221"/>
+      <c r="K73" s="222"/>
       <c r="M73" s="105"/>
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
@@ -22403,54 +22359,54 @@
       <c r="Q73" s="106"/>
     </row>
     <row r="74" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="M74" s="201" t="s">
+      <c r="M74" s="189" t="s">
         <v>251</v>
       </c>
-      <c r="N74" s="202"/>
+      <c r="N74" s="190"/>
       <c r="O74" s="1"/>
-      <c r="P74" s="201" t="s">
+      <c r="P74" s="189" t="s">
         <v>252</v>
       </c>
-      <c r="Q74" s="202"/>
-      <c r="S74" s="201" t="s">
+      <c r="Q74" s="190"/>
+      <c r="S74" s="189" t="s">
         <v>258</v>
       </c>
-      <c r="T74" s="202"/>
-      <c r="V74" s="138"/>
-      <c r="W74" s="138"/>
+      <c r="T74" s="190"/>
+      <c r="V74" s="143"/>
+      <c r="W74" s="143"/>
     </row>
     <row r="75" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="M75" s="203"/>
-      <c r="N75" s="204"/>
+      <c r="M75" s="191"/>
+      <c r="N75" s="192"/>
       <c r="O75" s="1"/>
-      <c r="P75" s="203"/>
-      <c r="Q75" s="204"/>
-      <c r="S75" s="203"/>
-      <c r="T75" s="204"/>
-      <c r="V75" s="138"/>
-      <c r="W75" s="138"/>
+      <c r="P75" s="191"/>
+      <c r="Q75" s="192"/>
+      <c r="S75" s="191"/>
+      <c r="T75" s="192"/>
+      <c r="V75" s="143"/>
+      <c r="W75" s="143"/>
     </row>
     <row r="76" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="M76" s="203"/>
-      <c r="N76" s="204"/>
+      <c r="M76" s="191"/>
+      <c r="N76" s="192"/>
       <c r="O76" s="1"/>
-      <c r="P76" s="203"/>
-      <c r="Q76" s="204"/>
-      <c r="S76" s="203"/>
-      <c r="T76" s="204"/>
-      <c r="V76" s="138"/>
-      <c r="W76" s="138"/>
+      <c r="P76" s="191"/>
+      <c r="Q76" s="192"/>
+      <c r="S76" s="191"/>
+      <c r="T76" s="192"/>
+      <c r="V76" s="143"/>
+      <c r="W76" s="143"/>
     </row>
     <row r="77" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="M77" s="205"/>
-      <c r="N77" s="206"/>
+      <c r="M77" s="193"/>
+      <c r="N77" s="194"/>
       <c r="O77" s="107"/>
-      <c r="P77" s="205"/>
-      <c r="Q77" s="206"/>
-      <c r="S77" s="205"/>
-      <c r="T77" s="206"/>
-      <c r="V77" s="138"/>
-      <c r="W77" s="138"/>
+      <c r="P77" s="193"/>
+      <c r="Q77" s="194"/>
+      <c r="S77" s="193"/>
+      <c r="T77" s="194"/>
+      <c r="V77" s="143"/>
+      <c r="W77" s="143"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="S4:W13">
@@ -22479,6 +22435,8 @@
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="B15:C18"/>
     <mergeCell ref="B32:C39"/>
+    <mergeCell ref="L1:L65"/>
+    <mergeCell ref="D1:D65"/>
     <mergeCell ref="S68:T72"/>
     <mergeCell ref="S67:W67"/>
     <mergeCell ref="A66:XFD66"/>
@@ -22487,25 +22445,23 @@
     <mergeCell ref="A69:K69"/>
     <mergeCell ref="A70:K71"/>
     <mergeCell ref="V68:W72"/>
-    <mergeCell ref="L1:L65"/>
-    <mergeCell ref="D1:D65"/>
+    <mergeCell ref="AI1:AI65"/>
+    <mergeCell ref="AE1:AE65"/>
     <mergeCell ref="AJ2:AL2"/>
     <mergeCell ref="AJ17:AK17"/>
     <mergeCell ref="AP2:AS2"/>
     <mergeCell ref="AP10:AQ10"/>
-    <mergeCell ref="Y2:AD2"/>
+    <mergeCell ref="AO1:AO65"/>
+    <mergeCell ref="X1:X65"/>
+    <mergeCell ref="R1:R65"/>
     <mergeCell ref="Y22:AA22"/>
     <mergeCell ref="AF2:AH2"/>
     <mergeCell ref="AF17:AG17"/>
     <mergeCell ref="AF41:AG45"/>
-    <mergeCell ref="AI1:AI65"/>
-    <mergeCell ref="AO1:AO65"/>
-    <mergeCell ref="AE1:AE65"/>
-    <mergeCell ref="X1:X65"/>
-    <mergeCell ref="R1:R65"/>
+    <mergeCell ref="Y2:AD2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="42" fitToWidth="2" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <tableParts count="7">
     <tablePart r:id="rId3"/>
